--- a/ICD-10 conversions_5_25_20 .xlsx
+++ b/ICD-10 conversions_5_25_20 .xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/elianagk/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shutfle1\Desktop\Johns-Hopkins-Overuse-Project-with-Segal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14C50EEE-DBAB-084D-8C88-228FF03BBB13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="460" windowWidth="23240" windowHeight="13460" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="460" windowWidth="23240" windowHeight="13460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="READ ME" sheetId="4" r:id="rId1"/>
@@ -49,7 +48,7 @@
     <definedName name="OLE_LINK3" localSheetId="1">'Indicator Descriptions'!$B$19</definedName>
     <definedName name="OLE_LINK4" localSheetId="1">'Indicator Descriptions'!$B$20</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -67,12 +66,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Jodi</author>
   </authors>
   <commentList>
-    <comment ref="D21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="D21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -110,7 +109,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1618" uniqueCount="629">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1617" uniqueCount="628">
   <si>
     <t>Working Number</t>
   </si>
@@ -1802,17 +1801,8 @@
     <t>added 10mar2020</t>
   </si>
   <si>
-    <t>Adding cpt 71010, 71020   which were used in 2016 (in addition to 71045 and 71046 ) per 17mar2020 email
-Waiting for JS review after 13mar2020 phone meeting (none popped until 2018)
-Removed pre-op visit requirement on 04mar2020 per email. 
-Running on server, needs lookback (04mar2020)</t>
-  </si>
-  <si>
     <t>Added revenue center codes to identify ED: https://www.ncbi.nlm.nih.gov/pmc/articles/PMC5905698/
 0450–0459, 0981</t>
-  </si>
-  <si>
-    <t>ready for output (18mar2020)</t>
   </si>
   <si>
     <t>running oncms server without lookback (19mar2020)</t>
@@ -2641,14 +2631,31 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>and with NO exclusionary code OR concurent knee preplacement associated with the procedure (same claim).</t>
+      <t xml:space="preserve">and with NO exclusionary code OR concurent knee preplacement associated with the procedure (same claim).  </t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This statement no longer applies with restriction to diagnosis then look forward to surgery.</t>
+    </r>
+  </si>
+  <si>
+    <t>Adding cpt 71010, 71020   which were used in 2016 (in addition to 71045 and 71046 ) per 17mar2020 email
+Waiting for JS review after 13mar2020 phone meeting (none popped until 2018)
+Removed pre-op visit requirement on 04mar2020 per email. 
+Required surgery was within 180 days of qualifying visit (25may2020)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="47">
     <font>
       <sz val="12"/>
@@ -4279,48 +4286,6 @@
     <xf numFmtId="0" fontId="0" fillId="44" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="43" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4403,6 +4368,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="45" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="43" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4735,24 +4742,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="98.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="22">
+    <row r="1" spans="1:1" ht="21">
       <c r="A1" s="16" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="34">
+    <row r="2" spans="1:1" ht="31">
       <c r="A2" s="17" t="s">
         <v>268</v>
       </c>
@@ -4778,42 +4785,42 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17">
+    <row r="8" spans="1:1">
       <c r="A8" s="18" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17">
+    <row r="9" spans="1:1">
       <c r="A9" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17">
+    <row r="10" spans="1:1">
       <c r="A10" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17">
+    <row r="11" spans="1:1">
       <c r="A11" s="17" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="17">
+    <row r="12" spans="1:1">
       <c r="A12" s="17" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17">
+    <row r="13" spans="1:1">
       <c r="A13" s="18" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="17">
+    <row r="14" spans="1:1">
       <c r="A14" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="17">
+    <row r="15" spans="1:1">
       <c r="A15" s="17" t="s">
         <v>179</v>
       </c>
@@ -4831,32 +4838,32 @@
     <row r="18" spans="1:1">
       <c r="A18" s="17"/>
     </row>
-    <row r="19" spans="1:1" ht="51">
+    <row r="19" spans="1:1" ht="46.5">
       <c r="A19" s="17" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="17">
+    <row r="20" spans="1:1">
       <c r="A20" s="20" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="17">
+    <row r="21" spans="1:1">
       <c r="A21" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="17">
+    <row r="22" spans="1:1">
       <c r="A22" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="17">
+    <row r="23" spans="1:1">
       <c r="A23" s="17" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="17">
+    <row r="24" spans="1:1">
       <c r="A24" s="17" t="s">
         <v>275</v>
       </c>
@@ -4871,27 +4878,27 @@
         <v>273</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="17">
+    <row r="27" spans="1:1">
       <c r="A27" s="20" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="17">
+    <row r="28" spans="1:1">
       <c r="A28" s="17" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="17">
+    <row r="29" spans="1:1">
       <c r="A29" s="17" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="17">
+    <row r="30" spans="1:1">
       <c r="A30" s="17" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="17">
+    <row r="31" spans="1:1">
       <c r="A31" s="17" t="s">
         <v>275</v>
       </c>
@@ -4913,86 +4920,86 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK389"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="10.5" style="218" customWidth="1"/>
     <col min="2" max="2" width="29" style="219" customWidth="1"/>
     <col min="3" max="3" width="32" style="220" customWidth="1"/>
     <col min="4" max="4" width="28.33203125" style="221" customWidth="1"/>
     <col min="5" max="5" width="20" style="221" customWidth="1"/>
-    <col min="6" max="6" width="20" style="424" customWidth="1"/>
+    <col min="6" max="6" width="20" style="410" customWidth="1"/>
     <col min="7" max="7" width="38.33203125" style="246" customWidth="1"/>
     <col min="8" max="8" width="41.33203125" style="246" customWidth="1"/>
-    <col min="9" max="9" width="12.5" style="222" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="222" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="20.83203125" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5" style="313" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="313" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5" style="313" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="27" style="257" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="25" style="257" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="0" style="257" hidden="1" customWidth="1"/>
-    <col min="18" max="20" width="0" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="222" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="222" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="313" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="313" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="313" customWidth="1"/>
+    <col min="15" max="15" width="27" style="257" customWidth="1"/>
+    <col min="16" max="16" width="25" style="257" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" style="257" customWidth="1"/>
+    <col min="18" max="20" width="8.83203125" customWidth="1"/>
     <col min="37" max="37" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="T1" s="2"/>
-      <c r="U1" s="387" t="s">
-        <v>594</v>
-      </c>
-      <c r="V1" s="387"/>
-      <c r="W1" s="387"/>
-      <c r="X1" s="387"/>
-      <c r="Y1" s="387"/>
-      <c r="Z1" s="387"/>
-      <c r="AA1" s="387"/>
-      <c r="AB1" s="388" t="s">
-        <v>595</v>
-      </c>
-      <c r="AC1" s="388"/>
-      <c r="AD1" s="388"/>
-      <c r="AE1" s="388"/>
+      <c r="U1" s="422" t="s">
+        <v>592</v>
+      </c>
+      <c r="V1" s="422"/>
+      <c r="W1" s="422"/>
+      <c r="X1" s="422"/>
+      <c r="Y1" s="422"/>
+      <c r="Z1" s="422"/>
+      <c r="AA1" s="422"/>
+      <c r="AB1" s="423" t="s">
+        <v>593</v>
+      </c>
+      <c r="AC1" s="423"/>
+      <c r="AD1" s="423"/>
+      <c r="AE1" s="423"/>
       <c r="AF1" s="377"/>
       <c r="AG1" s="377"/>
       <c r="AH1" s="377"/>
       <c r="AI1" s="377"/>
-      <c r="AJ1" s="402"/>
+      <c r="AJ1" s="388"/>
     </row>
     <row r="2" spans="1:37">
       <c r="T2" s="378"/>
-      <c r="U2" s="389" t="s">
-        <v>580</v>
-      </c>
-      <c r="V2" s="389"/>
-      <c r="W2" s="389"/>
-      <c r="X2" s="390" t="s">
-        <v>583</v>
-      </c>
-      <c r="Y2" s="391"/>
-      <c r="Z2" s="391"/>
-      <c r="AA2" s="392"/>
-      <c r="AB2" s="393" t="s">
-        <v>580</v>
-      </c>
-      <c r="AC2" s="394"/>
-      <c r="AD2" s="394"/>
-      <c r="AE2" s="395"/>
-      <c r="AF2" s="396" t="s">
-        <v>596</v>
-      </c>
-      <c r="AG2" s="397"/>
-      <c r="AH2" s="397"/>
-      <c r="AI2" s="398"/>
-      <c r="AJ2" s="402"/>
+      <c r="U2" s="424" t="s">
+        <v>578</v>
+      </c>
+      <c r="V2" s="424"/>
+      <c r="W2" s="424"/>
+      <c r="X2" s="425" t="s">
+        <v>581</v>
+      </c>
+      <c r="Y2" s="426"/>
+      <c r="Z2" s="426"/>
+      <c r="AA2" s="427"/>
+      <c r="AB2" s="428" t="s">
+        <v>578</v>
+      </c>
+      <c r="AC2" s="429"/>
+      <c r="AD2" s="429"/>
+      <c r="AE2" s="430"/>
+      <c r="AF2" s="419" t="s">
+        <v>594</v>
+      </c>
+      <c r="AG2" s="420"/>
+      <c r="AH2" s="420"/>
+      <c r="AI2" s="421"/>
+      <c r="AJ2" s="388"/>
     </row>
     <row r="3" spans="1:37" s="198" customFormat="1" ht="39" customHeight="1">
       <c r="A3" s="199" t="s">
@@ -5010,14 +5017,14 @@
       <c r="E3" s="200" t="s">
         <v>435</v>
       </c>
-      <c r="F3" s="425" t="s">
-        <v>604</v>
+      <c r="F3" s="411" t="s">
+        <v>602</v>
       </c>
       <c r="G3" s="243" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H3" s="243" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="I3" s="201" t="s">
         <v>221</v>
@@ -5035,7 +5042,7 @@
         <v>444</v>
       </c>
       <c r="N3" s="309" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="O3" s="248" t="s">
         <v>445</v>
@@ -5045,58 +5052,58 @@
       </c>
       <c r="Q3" s="248"/>
       <c r="T3" s="379" t="s">
+        <v>577</v>
+      </c>
+      <c r="U3" s="380" t="s">
         <v>579</v>
       </c>
-      <c r="U3" s="380" t="s">
-        <v>581</v>
-      </c>
       <c r="V3" s="380" t="s">
+        <v>580</v>
+      </c>
+      <c r="W3" s="380" t="s">
+        <v>584</v>
+      </c>
+      <c r="X3" s="381" t="s">
+        <v>579</v>
+      </c>
+      <c r="Y3" s="381" t="s">
+        <v>580</v>
+      </c>
+      <c r="Z3" s="381" t="s">
+        <v>584</v>
+      </c>
+      <c r="AA3" s="382" t="s">
+        <v>583</v>
+      </c>
+      <c r="AB3" s="380" t="s">
+        <v>579</v>
+      </c>
+      <c r="AC3" s="380" t="s">
+        <v>580</v>
+      </c>
+      <c r="AD3" s="380" t="s">
+        <v>584</v>
+      </c>
+      <c r="AE3" s="382" t="s">
         <v>582</v>
       </c>
-      <c r="W3" s="380" t="s">
-        <v>586</v>
-      </c>
-      <c r="X3" s="381" t="s">
-        <v>581</v>
-      </c>
-      <c r="Y3" s="381" t="s">
-        <v>582</v>
-      </c>
-      <c r="Z3" s="381" t="s">
-        <v>586</v>
-      </c>
-      <c r="AA3" s="382" t="s">
-        <v>585</v>
-      </c>
-      <c r="AB3" s="380" t="s">
-        <v>581</v>
-      </c>
-      <c r="AC3" s="380" t="s">
-        <v>582</v>
-      </c>
-      <c r="AD3" s="380" t="s">
-        <v>586</v>
-      </c>
-      <c r="AE3" s="382" t="s">
-        <v>584</v>
-      </c>
       <c r="AF3" s="383" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="AG3" s="383" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="AH3" s="383" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="AI3" s="383" t="s">
         <v>240</v>
       </c>
-      <c r="AJ3" s="417" t="s">
-        <v>602</v>
+      <c r="AJ3" s="403" t="s">
+        <v>600</v>
       </c>
       <c r="AK3" s="198" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:37" s="53" customFormat="1" ht="95.5" customHeight="1">
@@ -5115,14 +5122,14 @@
       <c r="E4" s="200" t="s">
         <v>240</v>
       </c>
-      <c r="F4" s="425" t="s">
-        <v>605</v>
+      <c r="F4" s="411" t="s">
+        <v>603</v>
       </c>
       <c r="G4" s="243" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H4" s="243" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="I4" s="204" t="s">
         <v>232</v>
@@ -5138,18 +5145,18 @@
         <v>443</v>
       </c>
       <c r="N4" s="324" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="O4" s="249" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="P4" s="249"/>
       <c r="Q4" s="249"/>
       <c r="T4" s="360">
         <v>1</v>
       </c>
-      <c r="U4" s="428" t="s">
-        <v>601</v>
+      <c r="U4" s="414" t="s">
+        <v>599</v>
       </c>
       <c r="V4" s="360"/>
       <c r="W4" s="360"/>
@@ -5157,8 +5164,8 @@
       <c r="Y4" s="360"/>
       <c r="Z4" s="360"/>
       <c r="AA4" s="361"/>
-      <c r="AB4" s="428" t="s">
-        <v>627</v>
+      <c r="AB4" s="414" t="s">
+        <v>625</v>
       </c>
       <c r="AC4" s="360"/>
       <c r="AD4" s="360"/>
@@ -5171,11 +5178,11 @@
       <c r="AI4" s="360" t="s">
         <v>48</v>
       </c>
-      <c r="AJ4" s="418" t="s">
-        <v>626</v>
-      </c>
-      <c r="AK4" s="423" t="s">
-        <v>619</v>
+      <c r="AJ4" s="404" t="s">
+        <v>624</v>
+      </c>
+      <c r="AK4" s="409" t="s">
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:37" s="48" customFormat="1" ht="84" customHeight="1">
@@ -5194,14 +5201,14 @@
       <c r="E5" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F5" s="425" t="s">
-        <v>605</v>
+      <c r="F5" s="411" t="s">
+        <v>603</v>
       </c>
       <c r="G5" s="243" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="H5" s="243" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="I5" s="204" t="s">
         <v>257</v>
@@ -5224,23 +5231,23 @@
       <c r="T5" s="360">
         <v>2</v>
       </c>
-      <c r="U5" s="431"/>
-      <c r="V5" s="431"/>
-      <c r="W5" s="431" t="s">
+      <c r="U5" s="417"/>
+      <c r="V5" s="417"/>
+      <c r="W5" s="417" t="s">
         <v>219</v>
       </c>
-      <c r="X5" s="431"/>
-      <c r="Y5" s="431"/>
-      <c r="Z5" s="431" t="s">
+      <c r="X5" s="417"/>
+      <c r="Y5" s="417"/>
+      <c r="Z5" s="417" t="s">
         <v>219</v>
       </c>
-      <c r="AA5" s="432"/>
-      <c r="AB5" s="431" t="s">
+      <c r="AA5" s="418"/>
+      <c r="AB5" s="417" t="s">
         <v>219</v>
       </c>
-      <c r="AC5" s="431"/>
-      <c r="AD5" s="431"/>
-      <c r="AE5" s="432"/>
+      <c r="AC5" s="417"/>
+      <c r="AD5" s="417"/>
+      <c r="AE5" s="418"/>
       <c r="AF5" s="360"/>
       <c r="AG5" s="360" t="s">
         <v>219</v>
@@ -5249,11 +5256,11 @@
       <c r="AI5" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ5" s="418" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="6" spans="1:37" s="48" customFormat="1" ht="195">
+      <c r="AJ5" s="404" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" s="48" customFormat="1" ht="182">
       <c r="A6" s="202">
         <v>3</v>
       </c>
@@ -5264,19 +5271,19 @@
         <v>353</v>
       </c>
       <c r="D6" s="200" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E6" s="200" t="s">
         <v>439</v>
       </c>
-      <c r="F6" s="425" t="s">
-        <v>605</v>
+      <c r="F6" s="411" t="s">
+        <v>603</v>
       </c>
       <c r="G6" s="243" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="H6" s="243" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="I6" s="204" t="s">
         <v>251</v>
@@ -5292,19 +5299,17 @@
       </c>
       <c r="N6" s="311"/>
       <c r="O6" s="250" t="s">
+        <v>627</v>
+      </c>
+      <c r="P6" s="250"/>
+      <c r="Q6" s="250" t="s">
         <v>464</v>
       </c>
-      <c r="P6" s="250" t="s">
-        <v>466</v>
-      </c>
-      <c r="Q6" s="250" t="s">
-        <v>465</v>
-      </c>
       <c r="R6" s="242" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="S6" s="260" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="T6" s="375">
         <v>3</v>
@@ -5336,9 +5341,9 @@
       </c>
       <c r="AH6" s="360"/>
       <c r="AI6" s="360"/>
-      <c r="AJ6" s="418"/>
-    </row>
-    <row r="7" spans="1:37" s="48" customFormat="1" ht="90">
+      <c r="AJ6" s="404"/>
+    </row>
+    <row r="7" spans="1:37" s="48" customFormat="1" ht="78">
       <c r="A7" s="202">
         <v>4</v>
       </c>
@@ -5354,14 +5359,14 @@
       <c r="E7" s="200" t="s">
         <v>436</v>
       </c>
-      <c r="F7" s="425" t="s">
-        <v>606</v>
+      <c r="F7" s="411" t="s">
+        <v>604</v>
       </c>
       <c r="G7" s="243" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H7" s="243" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="I7" s="204" t="s">
         <v>235</v>
@@ -5384,23 +5389,23 @@
       <c r="T7" s="360">
         <v>4</v>
       </c>
-      <c r="U7" s="431"/>
-      <c r="V7" s="431"/>
-      <c r="W7" s="431" t="s">
+      <c r="U7" s="417"/>
+      <c r="V7" s="417"/>
+      <c r="W7" s="417" t="s">
         <v>219</v>
       </c>
-      <c r="X7" s="431"/>
-      <c r="Y7" s="431"/>
-      <c r="Z7" s="431" t="s">
+      <c r="X7" s="417"/>
+      <c r="Y7" s="417"/>
+      <c r="Z7" s="417" t="s">
         <v>219</v>
       </c>
-      <c r="AA7" s="432"/>
-      <c r="AB7" s="431" t="s">
+      <c r="AA7" s="418"/>
+      <c r="AB7" s="417" t="s">
         <v>219</v>
       </c>
-      <c r="AC7" s="431"/>
-      <c r="AD7" s="431"/>
-      <c r="AE7" s="432"/>
+      <c r="AC7" s="417"/>
+      <c r="AD7" s="417"/>
+      <c r="AE7" s="418"/>
       <c r="AF7" s="360" t="s">
         <v>219</v>
       </c>
@@ -5413,8 +5418,8 @@
       <c r="AI7" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ7" s="418" t="s">
-        <v>612</v>
+      <c r="AJ7" s="404" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="8" spans="1:37" s="233" customFormat="1" ht="102.75" customHeight="1">
@@ -5428,19 +5433,19 @@
         <v>421</v>
       </c>
       <c r="D8" s="206" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E8" s="206" t="s">
         <v>446</v>
       </c>
-      <c r="F8" s="426" t="s">
-        <v>605</v>
+      <c r="F8" s="412" t="s">
+        <v>603</v>
       </c>
       <c r="G8" s="244" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="H8" s="244" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="I8" s="204" t="s">
         <v>398</v>
@@ -5462,7 +5467,7 @@
         <v>449</v>
       </c>
       <c r="P8" s="253" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="Q8" s="252"/>
       <c r="T8" s="385">
@@ -5493,11 +5498,11 @@
       <c r="AI8" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ8" s="419" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="9" spans="1:37" s="48" customFormat="1" ht="105">
+      <c r="AJ8" s="405" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" s="48" customFormat="1" ht="91">
       <c r="A9" s="202">
         <v>6</v>
       </c>
@@ -5513,14 +5518,14 @@
       <c r="E9" s="200" t="s">
         <v>437</v>
       </c>
-      <c r="F9" s="425" t="s">
-        <v>605</v>
+      <c r="F9" s="411" t="s">
+        <v>603</v>
       </c>
       <c r="G9" s="243" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H9" s="243" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="I9" s="204" t="s">
         <v>240</v>
@@ -5539,7 +5544,7 @@
         <v>455</v>
       </c>
       <c r="P9" s="251" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Q9" s="251"/>
       <c r="T9" s="385">
@@ -5570,8 +5575,8 @@
       <c r="AI9" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ9" s="418" t="s">
-        <v>614</v>
+      <c r="AJ9" s="404" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="10" spans="1:37" s="48" customFormat="1" ht="108.75" customHeight="1">
@@ -5590,14 +5595,14 @@
       <c r="E10" s="206" t="s">
         <v>457</v>
       </c>
-      <c r="F10" s="426" t="s">
-        <v>605</v>
+      <c r="F10" s="412" t="s">
+        <v>603</v>
       </c>
       <c r="G10" s="244" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H10" s="244" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="I10" s="204" t="s">
         <v>228</v>
@@ -5616,7 +5621,7 @@
         <v>458</v>
       </c>
       <c r="P10" s="254" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="Q10" s="251"/>
       <c r="T10" s="375">
@@ -5651,11 +5656,11 @@
       <c r="AI10" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ10" s="418" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="11" spans="1:37" s="48" customFormat="1" ht="105">
+      <c r="AJ10" s="404" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" s="48" customFormat="1" ht="104">
       <c r="A11" s="202">
         <v>8</v>
       </c>
@@ -5671,14 +5676,14 @@
       <c r="E11" s="206" t="s">
         <v>436</v>
       </c>
-      <c r="F11" s="426" t="s">
-        <v>607</v>
+      <c r="F11" s="412" t="s">
+        <v>605</v>
       </c>
       <c r="G11" s="244" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H11" s="244" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="I11" s="204" t="s">
         <v>228</v>
@@ -5694,10 +5699,10 @@
       </c>
       <c r="N11" s="311"/>
       <c r="O11" s="251" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="P11" s="254" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Q11" s="251"/>
       <c r="T11" s="375">
@@ -5732,11 +5737,11 @@
       <c r="AI11" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ11" s="418" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="12" spans="1:37" s="48" customFormat="1" ht="105">
+      <c r="AJ11" s="404" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" s="48" customFormat="1" ht="91">
       <c r="A12" s="202">
         <v>9</v>
       </c>
@@ -5747,19 +5752,19 @@
         <v>366</v>
       </c>
       <c r="D12" s="200" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E12" s="200" t="s">
         <v>436</v>
       </c>
-      <c r="F12" s="425" t="s">
-        <v>607</v>
+      <c r="F12" s="411" t="s">
+        <v>605</v>
       </c>
       <c r="G12" s="243" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H12" s="243" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I12" s="204" t="s">
         <v>265</v>
@@ -5775,7 +5780,7 @@
       </c>
       <c r="N12" s="311"/>
       <c r="O12" s="251" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="P12" s="251"/>
       <c r="Q12" s="251"/>
@@ -5805,8 +5810,8 @@
       <c r="AI12" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ12" s="418" t="s">
-        <v>613</v>
+      <c r="AJ12" s="404" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:37" s="48" customFormat="1" ht="97.5" customHeight="1">
@@ -5820,19 +5825,19 @@
         <v>367</v>
       </c>
       <c r="D13" s="206" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="E13" s="206" t="s">
         <v>436</v>
       </c>
-      <c r="F13" s="426" t="s">
-        <v>607</v>
+      <c r="F13" s="412" t="s">
+        <v>605</v>
       </c>
       <c r="G13" s="244" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H13" s="244" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="I13" s="204" t="s">
         <v>243</v>
@@ -5848,10 +5853,10 @@
       </c>
       <c r="N13" s="311"/>
       <c r="O13" s="251" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="P13" s="251" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="Q13" s="251"/>
       <c r="T13" s="360">
@@ -5886,11 +5891,11 @@
       <c r="AI13" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ13" s="418" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="14" spans="1:37" s="48" customFormat="1" ht="120">
+      <c r="AJ13" s="404" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" s="48" customFormat="1" ht="117">
       <c r="A14" s="202">
         <v>11</v>
       </c>
@@ -5906,14 +5911,14 @@
       <c r="E14" s="206" t="s">
         <v>436</v>
       </c>
-      <c r="F14" s="426" t="s">
-        <v>606</v>
+      <c r="F14" s="412" t="s">
+        <v>604</v>
       </c>
       <c r="G14" s="244" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H14" s="244" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="I14" s="204" t="s">
         <v>226</v>
@@ -5929,7 +5934,7 @@
       </c>
       <c r="N14" s="311"/>
       <c r="O14" s="251" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="P14" s="251"/>
       <c r="Q14" s="251"/>
@@ -5965,11 +5970,11 @@
       <c r="AI14" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ14" s="418" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="15" spans="1:37" s="48" customFormat="1" ht="180">
+      <c r="AJ14" s="404" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" s="48" customFormat="1" ht="156">
       <c r="A15" s="202">
         <v>12</v>
       </c>
@@ -5985,14 +5990,14 @@
       <c r="E15" s="206" t="s">
         <v>438</v>
       </c>
-      <c r="F15" s="426" t="s">
-        <v>606</v>
+      <c r="F15" s="412" t="s">
+        <v>604</v>
       </c>
       <c r="G15" s="244" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H15" s="244" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="I15" s="204" t="s">
         <v>238</v>
@@ -6008,10 +6013,10 @@
       </c>
       <c r="N15" s="311"/>
       <c r="O15" s="255" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="P15" s="251" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Q15" s="251"/>
       <c r="T15" s="360">
@@ -6042,8 +6047,8 @@
         <v>219</v>
       </c>
       <c r="AI15" s="360"/>
-      <c r="AJ15" s="418" t="s">
-        <v>614</v>
+      <c r="AJ15" s="404" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="16" spans="1:37" s="48" customFormat="1" ht="108.75" customHeight="1">
@@ -6062,14 +6067,14 @@
       <c r="E16" s="206" t="s">
         <v>439</v>
       </c>
-      <c r="F16" s="426" t="s">
-        <v>605</v>
+      <c r="F16" s="412" t="s">
+        <v>603</v>
       </c>
       <c r="G16" s="244" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H16" s="244" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="I16" s="204" t="s">
         <v>248</v>
@@ -6085,32 +6090,32 @@
       </c>
       <c r="N16" s="311"/>
       <c r="O16" s="251" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="P16" s="251" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Q16" s="251"/>
       <c r="T16" s="360">
         <v>13</v>
       </c>
-      <c r="U16" s="420"/>
-      <c r="V16" s="420"/>
-      <c r="W16" s="420"/>
-      <c r="X16" s="420"/>
-      <c r="Y16" s="420"/>
-      <c r="Z16" s="420" t="s">
+      <c r="U16" s="406"/>
+      <c r="V16" s="406"/>
+      <c r="W16" s="406"/>
+      <c r="X16" s="406"/>
+      <c r="Y16" s="406"/>
+      <c r="Z16" s="406" t="s">
         <v>219</v>
       </c>
-      <c r="AA16" s="421"/>
-      <c r="AB16" s="420" t="s">
+      <c r="AA16" s="407"/>
+      <c r="AB16" s="406" t="s">
         <v>219</v>
       </c>
-      <c r="AC16" s="420" t="s">
+      <c r="AC16" s="406" t="s">
         <v>219</v>
       </c>
-      <c r="AD16" s="420"/>
-      <c r="AE16" s="421" t="s">
+      <c r="AD16" s="406"/>
+      <c r="AE16" s="407" t="s">
         <v>219</v>
       </c>
       <c r="AF16" s="360"/>
@@ -6119,11 +6124,11 @@
       </c>
       <c r="AH16" s="360"/>
       <c r="AI16" s="360"/>
-      <c r="AJ16" s="422" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="17" spans="1:36" s="48" customFormat="1" ht="120">
+      <c r="AJ16" s="408" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" s="48" customFormat="1" ht="104">
       <c r="A17" s="202">
         <v>14</v>
       </c>
@@ -6139,14 +6144,14 @@
       <c r="E17" s="206" t="s">
         <v>436</v>
       </c>
-      <c r="F17" s="426" t="s">
-        <v>607</v>
+      <c r="F17" s="412" t="s">
+        <v>605</v>
       </c>
       <c r="G17" s="244" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H17" s="244" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="I17" s="204" t="s">
         <v>254</v>
@@ -6194,11 +6199,11 @@
       <c r="AI17" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ17" s="418" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:36" s="48" customFormat="1" ht="135">
+      <c r="AJ17" s="404" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" s="48" customFormat="1" ht="117">
       <c r="A18" s="202">
         <v>15</v>
       </c>
@@ -6214,14 +6219,14 @@
       <c r="E18" s="200" t="s">
         <v>436</v>
       </c>
-      <c r="F18" s="425" t="s">
-        <v>606</v>
+      <c r="F18" s="411" t="s">
+        <v>604</v>
       </c>
       <c r="G18" s="243" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="H18" s="243" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="I18" s="204" t="s">
         <v>224</v>
@@ -6242,23 +6247,23 @@
       <c r="T18" s="360">
         <v>15</v>
       </c>
-      <c r="U18" s="420"/>
-      <c r="V18" s="420"/>
-      <c r="W18" s="420"/>
-      <c r="X18" s="420"/>
-      <c r="Y18" s="420"/>
-      <c r="Z18" s="420" t="s">
+      <c r="U18" s="406"/>
+      <c r="V18" s="406"/>
+      <c r="W18" s="406"/>
+      <c r="X18" s="406"/>
+      <c r="Y18" s="406"/>
+      <c r="Z18" s="406" t="s">
         <v>219</v>
       </c>
-      <c r="AA18" s="421"/>
-      <c r="AB18" s="420" t="s">
+      <c r="AA18" s="407"/>
+      <c r="AB18" s="406" t="s">
         <v>219</v>
       </c>
-      <c r="AC18" s="420" t="s">
+      <c r="AC18" s="406" t="s">
         <v>219</v>
       </c>
-      <c r="AD18" s="420"/>
-      <c r="AE18" s="421" t="s">
+      <c r="AD18" s="406"/>
+      <c r="AE18" s="407" t="s">
         <v>219</v>
       </c>
       <c r="AF18" s="360" t="s">
@@ -6273,11 +6278,11 @@
       <c r="AI18" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ18" s="422" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" s="48" customFormat="1" ht="90">
+      <c r="AJ18" s="408" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" s="48" customFormat="1" ht="78">
       <c r="A19" s="202">
         <v>16</v>
       </c>
@@ -6293,14 +6298,14 @@
       <c r="E19" s="200" t="s">
         <v>436</v>
       </c>
-      <c r="F19" s="425" t="s">
-        <v>607</v>
+      <c r="F19" s="411" t="s">
+        <v>605</v>
       </c>
       <c r="G19" s="243" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H19" s="243" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="I19" s="204" t="s">
         <v>224</v>
@@ -6319,7 +6324,7 @@
         <v>460</v>
       </c>
       <c r="P19" s="251" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Q19" s="251"/>
       <c r="T19" s="360">
@@ -6350,11 +6355,11 @@
       <c r="AI19" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ19" s="418" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" s="48" customFormat="1" ht="180">
+      <c r="AJ19" s="404" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36" s="48" customFormat="1" ht="156">
       <c r="A20" s="202">
         <v>17</v>
       </c>
@@ -6370,14 +6375,14 @@
       <c r="E20" s="200" t="s">
         <v>440</v>
       </c>
-      <c r="F20" s="425" t="s">
-        <v>605</v>
+      <c r="F20" s="411" t="s">
+        <v>603</v>
       </c>
       <c r="G20" s="243" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H20" s="243" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="I20" s="204" t="s">
         <v>224</v>
@@ -6427,11 +6432,11 @@
       <c r="AI20" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ20" s="418" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="21" spans="1:36" s="19" customFormat="1" ht="90">
+      <c r="AJ20" s="404" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" s="19" customFormat="1" ht="104">
       <c r="A21" s="207">
         <v>18</v>
       </c>
@@ -6442,19 +6447,19 @@
         <v>358</v>
       </c>
       <c r="D21" s="208" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E21" s="200" t="s">
         <v>436</v>
       </c>
-      <c r="F21" s="425" t="s">
-        <v>606</v>
+      <c r="F21" s="411" t="s">
+        <v>604</v>
       </c>
       <c r="G21" s="243" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="H21" s="243" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="I21" s="204" t="s">
         <v>224</v>
@@ -6470,10 +6475,10 @@
       </c>
       <c r="N21" s="313"/>
       <c r="O21" s="256" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="P21" s="257" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="Q21" s="257"/>
       <c r="T21" s="360">
@@ -6516,8 +6521,8 @@
       <c r="AI21" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ21" s="417" t="s">
-        <v>621</v>
+      <c r="AJ21" s="403" t="s">
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="132" customHeight="1">
@@ -6525,25 +6530,25 @@
         <v>19</v>
       </c>
       <c r="B22" s="203" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C22" s="203" t="s">
         <v>372</v>
       </c>
       <c r="D22" s="200" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E22" s="206" t="s">
         <v>439</v>
       </c>
-      <c r="F22" s="426" t="s">
-        <v>605</v>
+      <c r="F22" s="412" t="s">
+        <v>603</v>
       </c>
       <c r="G22" s="244" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H22" s="244" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="I22" s="204" t="s">
         <v>277</v>
@@ -6558,10 +6563,10 @@
         <v>443</v>
       </c>
       <c r="O22" s="257" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="P22" s="256" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="T22" s="331">
         <v>19</v>
@@ -6587,8 +6592,8 @@
       </c>
       <c r="AH22" s="360"/>
       <c r="AI22" s="360"/>
-      <c r="AJ22" s="402" t="s">
-        <v>618</v>
+      <c r="AJ22" s="388" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="86.25" customHeight="1">
@@ -6602,19 +6607,19 @@
         <v>357</v>
       </c>
       <c r="D23" s="211" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E23" s="206" t="s">
         <v>439</v>
       </c>
-      <c r="F23" s="427" t="s">
-        <v>605</v>
+      <c r="F23" s="413" t="s">
+        <v>603</v>
       </c>
       <c r="G23" s="245" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H23" s="245" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="I23" s="212" t="s">
         <v>277</v>
@@ -6629,7 +6634,7 @@
         <v>443</v>
       </c>
       <c r="O23" s="257" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="T23" s="331">
         <v>20</v>
@@ -6655,11 +6660,11 @@
       </c>
       <c r="AH23" s="360"/>
       <c r="AI23" s="360"/>
-      <c r="AJ23" s="402" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" ht="221">
+      <c r="AJ23" s="388" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="201.5">
       <c r="A24" s="202">
         <v>21</v>
       </c>
@@ -6670,19 +6675,19 @@
         <v>373</v>
       </c>
       <c r="D24" s="200" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E24" s="206" t="s">
         <v>439</v>
       </c>
-      <c r="F24" s="426" t="s">
-        <v>605</v>
+      <c r="F24" s="412" t="s">
+        <v>603</v>
       </c>
       <c r="G24" s="244" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H24" s="244" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="I24" s="204" t="s">
         <v>277</v>
@@ -6697,7 +6702,7 @@
         <v>443</v>
       </c>
       <c r="O24" s="258" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="T24" s="331">
         <v>21</v>
@@ -6723,11 +6728,11 @@
       </c>
       <c r="AH24" s="360"/>
       <c r="AI24" s="360"/>
-      <c r="AJ24" s="402" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" ht="120">
+      <c r="AJ24" s="388" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36" ht="104">
       <c r="A25" s="202">
         <v>22</v>
       </c>
@@ -6743,14 +6748,14 @@
       <c r="E25" s="200" t="s">
         <v>436</v>
       </c>
-      <c r="F25" s="425" t="s">
-        <v>607</v>
+      <c r="F25" s="411" t="s">
+        <v>605</v>
       </c>
       <c r="G25" s="243" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="H25" s="243" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="I25" s="204" t="s">
         <v>262</v>
@@ -6765,7 +6770,7 @@
         <v>442</v>
       </c>
       <c r="O25" s="257" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="T25" s="360">
         <v>22</v>
@@ -6793,8 +6798,8 @@
       <c r="AI25" s="360" t="s">
         <v>219</v>
       </c>
-      <c r="AJ25" s="402" t="s">
-        <v>613</v>
+      <c r="AJ25" s="388" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="26" spans="1:36" s="180" customFormat="1">
@@ -6803,7 +6808,7 @@
       <c r="C26" s="215"/>
       <c r="D26" s="216"/>
       <c r="E26" s="216"/>
-      <c r="F26" s="429"/>
+      <c r="F26" s="415"/>
       <c r="I26" s="217"/>
       <c r="J26" s="217"/>
       <c r="L26" s="214"/>
@@ -6819,7 +6824,7 @@
       <c r="C27" s="215"/>
       <c r="D27" s="216"/>
       <c r="E27" s="216"/>
-      <c r="F27" s="429"/>
+      <c r="F27" s="415"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="217"/>
@@ -6837,7 +6842,7 @@
       <c r="C28" s="215"/>
       <c r="D28" s="216"/>
       <c r="E28" s="216"/>
-      <c r="F28" s="429"/>
+      <c r="F28" s="415"/>
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="217"/>
@@ -6855,9 +6860,9 @@
       <c r="C29" s="215"/>
       <c r="D29" s="216"/>
       <c r="E29" s="216"/>
-      <c r="F29" s="429"/>
-      <c r="G29" s="429"/>
-      <c r="H29" s="429"/>
+      <c r="F29" s="415"/>
+      <c r="G29" s="415"/>
+      <c r="H29" s="415"/>
       <c r="I29" s="217"/>
       <c r="J29" s="217"/>
       <c r="L29" s="214"/>
@@ -6873,7 +6878,7 @@
       <c r="C30" s="215"/>
       <c r="D30" s="216"/>
       <c r="E30" s="216"/>
-      <c r="F30" s="429"/>
+      <c r="F30" s="415"/>
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="217"/>
@@ -6891,9 +6896,9 @@
       <c r="C31" s="215"/>
       <c r="D31" s="216"/>
       <c r="E31" s="216"/>
-      <c r="F31" s="429"/>
-      <c r="G31" s="429"/>
-      <c r="H31" s="429"/>
+      <c r="F31" s="415"/>
+      <c r="G31" s="415"/>
+      <c r="H31" s="415"/>
       <c r="I31" s="217"/>
       <c r="J31" s="217"/>
       <c r="L31" s="214"/>
@@ -6909,9 +6914,9 @@
       <c r="C32" s="215"/>
       <c r="D32" s="216"/>
       <c r="E32" s="216"/>
-      <c r="F32" s="429"/>
-      <c r="G32" s="429"/>
-      <c r="H32" s="429"/>
+      <c r="F32" s="415"/>
+      <c r="G32" s="415"/>
+      <c r="H32" s="415"/>
       <c r="I32" s="217"/>
       <c r="J32" s="217"/>
       <c r="L32" s="214"/>
@@ -6927,9 +6932,9 @@
       <c r="C33" s="215"/>
       <c r="D33" s="216"/>
       <c r="E33" s="216"/>
-      <c r="F33" s="429"/>
-      <c r="G33" s="429"/>
-      <c r="H33" s="429"/>
+      <c r="F33" s="415"/>
+      <c r="G33" s="415"/>
+      <c r="H33" s="415"/>
       <c r="I33" s="217"/>
       <c r="J33" s="217"/>
       <c r="L33" s="214"/>
@@ -6945,9 +6950,9 @@
       <c r="C34" s="215"/>
       <c r="D34" s="216"/>
       <c r="E34" s="216"/>
-      <c r="F34" s="429"/>
-      <c r="G34" s="429"/>
-      <c r="H34" s="429"/>
+      <c r="F34" s="415"/>
+      <c r="G34" s="415"/>
+      <c r="H34" s="415"/>
       <c r="I34" s="217"/>
       <c r="J34" s="217"/>
       <c r="L34" s="214"/>
@@ -6963,9 +6968,9 @@
       <c r="C35" s="215"/>
       <c r="D35" s="216"/>
       <c r="E35" s="216"/>
-      <c r="F35" s="429"/>
-      <c r="G35" s="429"/>
-      <c r="H35" s="429"/>
+      <c r="F35" s="415"/>
+      <c r="G35" s="415"/>
+      <c r="H35" s="415"/>
       <c r="I35" s="217"/>
       <c r="J35" s="217"/>
       <c r="L35" s="214"/>
@@ -6981,9 +6986,9 @@
       <c r="C36" s="215"/>
       <c r="D36" s="216"/>
       <c r="E36" s="216"/>
-      <c r="F36" s="429"/>
-      <c r="G36" s="429"/>
-      <c r="H36" s="429"/>
+      <c r="F36" s="415"/>
+      <c r="G36" s="415"/>
+      <c r="H36" s="415"/>
       <c r="I36" s="217"/>
       <c r="J36" s="217"/>
       <c r="L36" s="214"/>
@@ -6999,9 +7004,9 @@
       <c r="C37" s="215"/>
       <c r="D37" s="216"/>
       <c r="E37" s="216"/>
-      <c r="F37" s="429"/>
-      <c r="G37" s="429"/>
-      <c r="H37" s="429"/>
+      <c r="F37" s="415"/>
+      <c r="G37" s="415"/>
+      <c r="H37" s="415"/>
       <c r="I37" s="217"/>
       <c r="J37" s="217"/>
       <c r="L37" s="214"/>
@@ -7017,9 +7022,9 @@
       <c r="C38" s="215"/>
       <c r="D38" s="216"/>
       <c r="E38" s="216"/>
-      <c r="F38" s="429"/>
-      <c r="G38" s="429"/>
-      <c r="H38" s="429"/>
+      <c r="F38" s="415"/>
+      <c r="G38" s="415"/>
+      <c r="H38" s="415"/>
       <c r="I38" s="217"/>
       <c r="J38" s="217"/>
       <c r="L38" s="214"/>
@@ -7035,9 +7040,9 @@
       <c r="C39" s="215"/>
       <c r="D39" s="216"/>
       <c r="E39" s="216"/>
-      <c r="F39" s="429"/>
-      <c r="G39" s="429"/>
-      <c r="H39" s="429"/>
+      <c r="F39" s="415"/>
+      <c r="G39" s="415"/>
+      <c r="H39" s="415"/>
       <c r="I39" s="217"/>
       <c r="J39" s="217"/>
       <c r="L39" s="214"/>
@@ -7053,9 +7058,9 @@
       <c r="C40" s="215"/>
       <c r="D40" s="216"/>
       <c r="E40" s="216"/>
-      <c r="F40" s="429"/>
-      <c r="G40" s="429"/>
-      <c r="H40" s="429"/>
+      <c r="F40" s="415"/>
+      <c r="G40" s="415"/>
+      <c r="H40" s="415"/>
       <c r="I40" s="217"/>
       <c r="J40" s="217"/>
       <c r="L40" s="214"/>
@@ -7071,9 +7076,9 @@
       <c r="C41" s="215"/>
       <c r="D41" s="216"/>
       <c r="E41" s="216"/>
-      <c r="F41" s="429"/>
-      <c r="G41" s="429"/>
-      <c r="H41" s="429"/>
+      <c r="F41" s="415"/>
+      <c r="G41" s="415"/>
+      <c r="H41" s="415"/>
       <c r="I41" s="217"/>
       <c r="J41" s="217"/>
       <c r="L41" s="214"/>
@@ -7089,9 +7094,9 @@
       <c r="C42" s="215"/>
       <c r="D42" s="216"/>
       <c r="E42" s="216"/>
-      <c r="F42" s="429"/>
-      <c r="G42" s="429"/>
-      <c r="H42" s="429"/>
+      <c r="F42" s="415"/>
+      <c r="G42" s="415"/>
+      <c r="H42" s="415"/>
       <c r="I42" s="217"/>
       <c r="J42" s="217"/>
       <c r="L42" s="214"/>
@@ -7107,9 +7112,9 @@
       <c r="C43" s="215"/>
       <c r="D43" s="216"/>
       <c r="E43" s="216"/>
-      <c r="F43" s="429"/>
-      <c r="G43" s="429"/>
-      <c r="H43" s="429"/>
+      <c r="F43" s="415"/>
+      <c r="G43" s="415"/>
+      <c r="H43" s="415"/>
       <c r="I43" s="217"/>
       <c r="J43" s="217"/>
       <c r="L43" s="214"/>
@@ -7125,9 +7130,9 @@
       <c r="C44" s="215"/>
       <c r="D44" s="216"/>
       <c r="E44" s="216"/>
-      <c r="F44" s="429"/>
-      <c r="G44" s="429"/>
-      <c r="H44" s="430"/>
+      <c r="F44" s="415"/>
+      <c r="G44" s="415"/>
+      <c r="H44" s="416"/>
       <c r="I44" s="217"/>
       <c r="J44" s="217"/>
       <c r="L44" s="214"/>
@@ -7143,9 +7148,9 @@
       <c r="C45" s="215"/>
       <c r="D45" s="216"/>
       <c r="E45" s="216"/>
-      <c r="F45" s="429"/>
-      <c r="G45" s="429"/>
-      <c r="H45" s="430"/>
+      <c r="F45" s="415"/>
+      <c r="G45" s="415"/>
+      <c r="H45" s="416"/>
       <c r="I45" s="217"/>
       <c r="J45" s="217"/>
       <c r="L45" s="214"/>
@@ -7161,9 +7166,9 @@
       <c r="C46" s="215"/>
       <c r="D46" s="216"/>
       <c r="E46" s="216"/>
-      <c r="F46" s="429"/>
-      <c r="G46" s="429"/>
-      <c r="H46" s="430"/>
+      <c r="F46" s="415"/>
+      <c r="G46" s="415"/>
+      <c r="H46" s="416"/>
       <c r="I46" s="217"/>
       <c r="J46" s="217"/>
       <c r="L46" s="214"/>
@@ -7179,9 +7184,9 @@
       <c r="C47" s="215"/>
       <c r="D47" s="216"/>
       <c r="E47" s="216"/>
-      <c r="F47" s="429"/>
-      <c r="G47" s="429"/>
-      <c r="H47" s="430"/>
+      <c r="F47" s="415"/>
+      <c r="G47" s="415"/>
+      <c r="H47" s="416"/>
       <c r="I47" s="217"/>
       <c r="J47" s="217"/>
       <c r="L47" s="214"/>
@@ -7197,8 +7202,8 @@
       <c r="C48" s="215"/>
       <c r="D48" s="216"/>
       <c r="E48" s="216"/>
-      <c r="F48" s="429"/>
-      <c r="G48" s="429"/>
+      <c r="F48" s="415"/>
+      <c r="G48" s="415"/>
       <c r="H48" s="376"/>
       <c r="I48" s="217"/>
       <c r="J48" s="217"/>
@@ -7215,8 +7220,8 @@
       <c r="C49" s="215"/>
       <c r="D49" s="216"/>
       <c r="E49" s="216"/>
-      <c r="F49" s="429"/>
-      <c r="G49" s="429"/>
+      <c r="F49" s="415"/>
+      <c r="G49" s="415"/>
       <c r="H49" s="376"/>
       <c r="I49" s="217"/>
       <c r="J49" s="217"/>
@@ -7233,8 +7238,8 @@
       <c r="C50" s="215"/>
       <c r="D50" s="216"/>
       <c r="E50" s="216"/>
-      <c r="F50" s="429"/>
-      <c r="G50" s="429"/>
+      <c r="F50" s="415"/>
+      <c r="G50" s="415"/>
       <c r="H50" s="376"/>
       <c r="I50" s="217"/>
       <c r="J50" s="217"/>
@@ -7251,8 +7256,8 @@
       <c r="C51" s="215"/>
       <c r="D51" s="216"/>
       <c r="E51" s="216"/>
-      <c r="F51" s="429"/>
-      <c r="G51" s="429"/>
+      <c r="F51" s="415"/>
+      <c r="G51" s="415"/>
       <c r="H51" s="3"/>
       <c r="I51" s="217"/>
       <c r="J51" s="217"/>
@@ -7269,9 +7274,9 @@
       <c r="C52" s="215"/>
       <c r="D52" s="216"/>
       <c r="E52" s="216"/>
-      <c r="F52" s="429"/>
-      <c r="G52" s="429"/>
-      <c r="H52" s="429"/>
+      <c r="F52" s="415"/>
+      <c r="G52" s="415"/>
+      <c r="H52" s="415"/>
       <c r="I52" s="217"/>
       <c r="J52" s="217"/>
       <c r="L52" s="214"/>
@@ -7287,9 +7292,9 @@
       <c r="C53" s="215"/>
       <c r="D53" s="216"/>
       <c r="E53" s="216"/>
-      <c r="F53" s="429"/>
-      <c r="G53" s="429"/>
-      <c r="H53" s="429"/>
+      <c r="F53" s="415"/>
+      <c r="G53" s="415"/>
+      <c r="H53" s="415"/>
       <c r="I53" s="217"/>
       <c r="J53" s="217"/>
       <c r="L53" s="214"/>
@@ -7305,9 +7310,9 @@
       <c r="C54" s="215"/>
       <c r="D54" s="216"/>
       <c r="E54" s="216"/>
-      <c r="F54" s="429"/>
-      <c r="G54" s="429"/>
-      <c r="H54" s="429"/>
+      <c r="F54" s="415"/>
+      <c r="G54" s="415"/>
+      <c r="H54" s="415"/>
       <c r="I54" s="217"/>
       <c r="J54" s="217"/>
       <c r="L54" s="214"/>
@@ -7323,9 +7328,9 @@
       <c r="C55" s="215"/>
       <c r="D55" s="216"/>
       <c r="E55" s="216"/>
-      <c r="F55" s="429"/>
-      <c r="G55" s="429"/>
-      <c r="H55" s="429"/>
+      <c r="F55" s="415"/>
+      <c r="G55" s="415"/>
+      <c r="H55" s="415"/>
       <c r="I55" s="217"/>
       <c r="J55" s="217"/>
       <c r="L55" s="214"/>
@@ -7341,9 +7346,9 @@
       <c r="C56" s="215"/>
       <c r="D56" s="216"/>
       <c r="E56" s="216"/>
-      <c r="F56" s="429"/>
-      <c r="G56" s="429"/>
-      <c r="H56" s="429"/>
+      <c r="F56" s="415"/>
+      <c r="G56" s="415"/>
+      <c r="H56" s="415"/>
       <c r="I56" s="217"/>
       <c r="J56" s="217"/>
       <c r="L56" s="214"/>
@@ -7359,9 +7364,9 @@
       <c r="C57" s="215"/>
       <c r="D57" s="216"/>
       <c r="E57" s="216"/>
-      <c r="F57" s="429"/>
-      <c r="G57" s="429"/>
-      <c r="H57" s="429"/>
+      <c r="F57" s="415"/>
+      <c r="G57" s="415"/>
+      <c r="H57" s="415"/>
       <c r="I57" s="217"/>
       <c r="J57" s="217"/>
       <c r="L57" s="214"/>
@@ -7377,9 +7382,9 @@
       <c r="C58" s="215"/>
       <c r="D58" s="216"/>
       <c r="E58" s="216"/>
-      <c r="F58" s="429"/>
-      <c r="G58" s="429"/>
-      <c r="H58" s="429"/>
+      <c r="F58" s="415"/>
+      <c r="G58" s="415"/>
+      <c r="H58" s="415"/>
       <c r="I58" s="217"/>
       <c r="J58" s="217"/>
       <c r="L58" s="214"/>
@@ -7395,9 +7400,9 @@
       <c r="C59" s="215"/>
       <c r="D59" s="216"/>
       <c r="E59" s="216"/>
-      <c r="F59" s="429"/>
-      <c r="G59" s="429"/>
-      <c r="H59" s="429"/>
+      <c r="F59" s="415"/>
+      <c r="G59" s="415"/>
+      <c r="H59" s="415"/>
       <c r="I59" s="217"/>
       <c r="J59" s="217"/>
       <c r="L59" s="214"/>
@@ -7413,9 +7418,9 @@
       <c r="C60" s="215"/>
       <c r="D60" s="216"/>
       <c r="E60" s="216"/>
-      <c r="F60" s="429"/>
-      <c r="G60" s="429"/>
-      <c r="H60" s="429"/>
+      <c r="F60" s="415"/>
+      <c r="G60" s="415"/>
+      <c r="H60" s="415"/>
       <c r="I60" s="217"/>
       <c r="J60" s="217"/>
       <c r="L60" s="214"/>
@@ -7431,9 +7436,9 @@
       <c r="C61" s="215"/>
       <c r="D61" s="216"/>
       <c r="E61" s="216"/>
-      <c r="F61" s="429"/>
-      <c r="G61" s="429"/>
-      <c r="H61" s="429"/>
+      <c r="F61" s="415"/>
+      <c r="G61" s="415"/>
+      <c r="H61" s="415"/>
       <c r="I61" s="217"/>
       <c r="J61" s="217"/>
       <c r="L61" s="214"/>
@@ -7449,9 +7454,9 @@
       <c r="C62" s="215"/>
       <c r="D62" s="216"/>
       <c r="E62" s="216"/>
-      <c r="F62" s="429"/>
-      <c r="G62" s="429"/>
-      <c r="H62" s="429"/>
+      <c r="F62" s="415"/>
+      <c r="G62" s="415"/>
+      <c r="H62" s="415"/>
       <c r="I62" s="217"/>
       <c r="J62" s="217"/>
       <c r="L62" s="214"/>
@@ -7467,9 +7472,9 @@
       <c r="C63" s="215"/>
       <c r="D63" s="216"/>
       <c r="E63" s="216"/>
-      <c r="F63" s="429"/>
-      <c r="G63" s="429"/>
-      <c r="H63" s="429"/>
+      <c r="F63" s="415"/>
+      <c r="G63" s="415"/>
+      <c r="H63" s="415"/>
       <c r="I63" s="217"/>
       <c r="J63" s="217"/>
       <c r="L63" s="214"/>
@@ -7485,9 +7490,9 @@
       <c r="C64" s="215"/>
       <c r="D64" s="216"/>
       <c r="E64" s="216"/>
-      <c r="F64" s="429"/>
-      <c r="G64" s="429"/>
-      <c r="H64" s="429"/>
+      <c r="F64" s="415"/>
+      <c r="G64" s="415"/>
+      <c r="H64" s="415"/>
       <c r="I64" s="217"/>
       <c r="J64" s="217"/>
       <c r="L64" s="214"/>
@@ -7503,9 +7508,9 @@
       <c r="C65" s="215"/>
       <c r="D65" s="216"/>
       <c r="E65" s="216"/>
-      <c r="F65" s="429"/>
-      <c r="G65" s="429"/>
-      <c r="H65" s="429"/>
+      <c r="F65" s="415"/>
+      <c r="G65" s="415"/>
+      <c r="H65" s="415"/>
       <c r="I65" s="217"/>
       <c r="J65" s="217"/>
       <c r="L65" s="214"/>
@@ -7521,9 +7526,9 @@
       <c r="C66" s="215"/>
       <c r="D66" s="216"/>
       <c r="E66" s="216"/>
-      <c r="F66" s="429"/>
-      <c r="G66" s="429"/>
-      <c r="H66" s="429"/>
+      <c r="F66" s="415"/>
+      <c r="G66" s="415"/>
+      <c r="H66" s="415"/>
       <c r="I66" s="217"/>
       <c r="J66" s="217"/>
       <c r="L66" s="214"/>
@@ -7539,9 +7544,9 @@
       <c r="C67" s="215"/>
       <c r="D67" s="216"/>
       <c r="E67" s="216"/>
-      <c r="F67" s="429"/>
-      <c r="G67" s="429"/>
-      <c r="H67" s="429"/>
+      <c r="F67" s="415"/>
+      <c r="G67" s="415"/>
+      <c r="H67" s="415"/>
       <c r="I67" s="217"/>
       <c r="J67" s="217"/>
       <c r="L67" s="214"/>
@@ -7557,9 +7562,9 @@
       <c r="C68" s="215"/>
       <c r="D68" s="216"/>
       <c r="E68" s="216"/>
-      <c r="F68" s="429"/>
-      <c r="G68" s="429"/>
-      <c r="H68" s="429"/>
+      <c r="F68" s="415"/>
+      <c r="G68" s="415"/>
+      <c r="H68" s="415"/>
       <c r="I68" s="217"/>
       <c r="J68" s="217"/>
       <c r="L68" s="214"/>
@@ -7575,9 +7580,9 @@
       <c r="C69" s="215"/>
       <c r="D69" s="216"/>
       <c r="E69" s="216"/>
-      <c r="F69" s="429"/>
-      <c r="G69" s="429"/>
-      <c r="H69" s="429"/>
+      <c r="F69" s="415"/>
+      <c r="G69" s="415"/>
+      <c r="H69" s="415"/>
       <c r="I69" s="217"/>
       <c r="J69" s="217"/>
       <c r="L69" s="214"/>
@@ -7593,9 +7598,9 @@
       <c r="C70" s="215"/>
       <c r="D70" s="216"/>
       <c r="E70" s="216"/>
-      <c r="F70" s="429"/>
-      <c r="G70" s="429"/>
-      <c r="H70" s="429"/>
+      <c r="F70" s="415"/>
+      <c r="G70" s="415"/>
+      <c r="H70" s="415"/>
       <c r="I70" s="217"/>
       <c r="J70" s="217"/>
       <c r="L70" s="214"/>
@@ -7611,9 +7616,9 @@
       <c r="C71" s="215"/>
       <c r="D71" s="216"/>
       <c r="E71" s="216"/>
-      <c r="F71" s="429"/>
-      <c r="G71" s="429"/>
-      <c r="H71" s="429"/>
+      <c r="F71" s="415"/>
+      <c r="G71" s="415"/>
+      <c r="H71" s="415"/>
       <c r="I71" s="217"/>
       <c r="J71" s="217"/>
       <c r="L71" s="214"/>
@@ -7629,9 +7634,9 @@
       <c r="C72" s="215"/>
       <c r="D72" s="216"/>
       <c r="E72" s="216"/>
-      <c r="F72" s="429"/>
-      <c r="G72" s="429"/>
-      <c r="H72" s="429"/>
+      <c r="F72" s="415"/>
+      <c r="G72" s="415"/>
+      <c r="H72" s="415"/>
       <c r="I72" s="217"/>
       <c r="J72" s="217"/>
       <c r="L72" s="214"/>
@@ -7647,9 +7652,9 @@
       <c r="C73" s="215"/>
       <c r="D73" s="216"/>
       <c r="E73" s="216"/>
-      <c r="F73" s="429"/>
-      <c r="G73" s="429"/>
-      <c r="H73" s="429"/>
+      <c r="F73" s="415"/>
+      <c r="G73" s="415"/>
+      <c r="H73" s="415"/>
       <c r="I73" s="217"/>
       <c r="J73" s="217"/>
       <c r="L73" s="214"/>
@@ -7665,9 +7670,9 @@
       <c r="C74" s="215"/>
       <c r="D74" s="216"/>
       <c r="E74" s="216"/>
-      <c r="F74" s="429"/>
-      <c r="G74" s="429"/>
-      <c r="H74" s="429"/>
+      <c r="F74" s="415"/>
+      <c r="G74" s="415"/>
+      <c r="H74" s="415"/>
       <c r="I74" s="217"/>
       <c r="J74" s="217"/>
       <c r="L74" s="214"/>
@@ -7683,9 +7688,9 @@
       <c r="C75" s="215"/>
       <c r="D75" s="216"/>
       <c r="E75" s="216"/>
-      <c r="F75" s="429"/>
-      <c r="G75" s="429"/>
-      <c r="H75" s="429"/>
+      <c r="F75" s="415"/>
+      <c r="G75" s="415"/>
+      <c r="H75" s="415"/>
       <c r="I75" s="217"/>
       <c r="J75" s="217"/>
       <c r="L75" s="214"/>
@@ -7701,9 +7706,9 @@
       <c r="C76" s="215"/>
       <c r="D76" s="216"/>
       <c r="E76" s="216"/>
-      <c r="F76" s="429"/>
-      <c r="G76" s="429"/>
-      <c r="H76" s="429"/>
+      <c r="F76" s="415"/>
+      <c r="G76" s="415"/>
+      <c r="H76" s="415"/>
       <c r="I76" s="217"/>
       <c r="J76" s="217"/>
       <c r="L76" s="214"/>
@@ -7719,9 +7724,9 @@
       <c r="C77" s="215"/>
       <c r="D77" s="216"/>
       <c r="E77" s="216"/>
-      <c r="F77" s="429"/>
-      <c r="G77" s="429"/>
-      <c r="H77" s="429"/>
+      <c r="F77" s="415"/>
+      <c r="G77" s="415"/>
+      <c r="H77" s="415"/>
       <c r="I77" s="217"/>
       <c r="J77" s="217"/>
       <c r="L77" s="214"/>
@@ -7737,9 +7742,9 @@
       <c r="C78" s="215"/>
       <c r="D78" s="216"/>
       <c r="E78" s="216"/>
-      <c r="F78" s="429"/>
-      <c r="G78" s="429"/>
-      <c r="H78" s="429"/>
+      <c r="F78" s="415"/>
+      <c r="G78" s="415"/>
+      <c r="H78" s="415"/>
       <c r="I78" s="217"/>
       <c r="J78" s="217"/>
       <c r="L78" s="214"/>
@@ -7755,9 +7760,9 @@
       <c r="C79" s="215"/>
       <c r="D79" s="216"/>
       <c r="E79" s="216"/>
-      <c r="F79" s="429"/>
-      <c r="G79" s="429"/>
-      <c r="H79" s="429"/>
+      <c r="F79" s="415"/>
+      <c r="G79" s="415"/>
+      <c r="H79" s="415"/>
       <c r="I79" s="217"/>
       <c r="J79" s="217"/>
       <c r="L79" s="214"/>
@@ -7773,9 +7778,9 @@
       <c r="C80" s="215"/>
       <c r="D80" s="216"/>
       <c r="E80" s="216"/>
-      <c r="F80" s="429"/>
-      <c r="G80" s="429"/>
-      <c r="H80" s="429"/>
+      <c r="F80" s="415"/>
+      <c r="G80" s="415"/>
+      <c r="H80" s="415"/>
       <c r="I80" s="217"/>
       <c r="J80" s="217"/>
       <c r="L80" s="214"/>
@@ -7791,9 +7796,9 @@
       <c r="C81" s="215"/>
       <c r="D81" s="216"/>
       <c r="E81" s="216"/>
-      <c r="F81" s="429"/>
-      <c r="G81" s="429"/>
-      <c r="H81" s="429"/>
+      <c r="F81" s="415"/>
+      <c r="G81" s="415"/>
+      <c r="H81" s="415"/>
       <c r="I81" s="217"/>
       <c r="J81" s="217"/>
       <c r="L81" s="214"/>
@@ -7809,9 +7814,9 @@
       <c r="C82" s="215"/>
       <c r="D82" s="216"/>
       <c r="E82" s="216"/>
-      <c r="F82" s="429"/>
-      <c r="G82" s="429"/>
-      <c r="H82" s="429"/>
+      <c r="F82" s="415"/>
+      <c r="G82" s="415"/>
+      <c r="H82" s="415"/>
       <c r="I82" s="217"/>
       <c r="J82" s="217"/>
       <c r="L82" s="214"/>
@@ -7827,9 +7832,9 @@
       <c r="C83" s="215"/>
       <c r="D83" s="216"/>
       <c r="E83" s="216"/>
-      <c r="F83" s="429"/>
-      <c r="G83" s="429"/>
-      <c r="H83" s="429"/>
+      <c r="F83" s="415"/>
+      <c r="G83" s="415"/>
+      <c r="H83" s="415"/>
       <c r="I83" s="217"/>
       <c r="J83" s="217"/>
       <c r="L83" s="214"/>
@@ -7845,9 +7850,9 @@
       <c r="C84" s="215"/>
       <c r="D84" s="216"/>
       <c r="E84" s="216"/>
-      <c r="F84" s="429"/>
-      <c r="G84" s="429"/>
-      <c r="H84" s="429"/>
+      <c r="F84" s="415"/>
+      <c r="G84" s="415"/>
+      <c r="H84" s="415"/>
       <c r="I84" s="217"/>
       <c r="J84" s="217"/>
       <c r="L84" s="214"/>
@@ -7863,9 +7868,9 @@
       <c r="C85" s="215"/>
       <c r="D85" s="216"/>
       <c r="E85" s="216"/>
-      <c r="F85" s="429"/>
-      <c r="G85" s="429"/>
-      <c r="H85" s="429"/>
+      <c r="F85" s="415"/>
+      <c r="G85" s="415"/>
+      <c r="H85" s="415"/>
       <c r="I85" s="217"/>
       <c r="J85" s="217"/>
       <c r="L85" s="214"/>
@@ -7881,9 +7886,9 @@
       <c r="C86" s="215"/>
       <c r="D86" s="216"/>
       <c r="E86" s="216"/>
-      <c r="F86" s="429"/>
-      <c r="G86" s="429"/>
-      <c r="H86" s="429"/>
+      <c r="F86" s="415"/>
+      <c r="G86" s="415"/>
+      <c r="H86" s="415"/>
       <c r="I86" s="217"/>
       <c r="J86" s="217"/>
       <c r="L86" s="214"/>
@@ -7899,9 +7904,9 @@
       <c r="C87" s="215"/>
       <c r="D87" s="216"/>
       <c r="E87" s="216"/>
-      <c r="F87" s="429"/>
-      <c r="G87" s="429"/>
-      <c r="H87" s="429"/>
+      <c r="F87" s="415"/>
+      <c r="G87" s="415"/>
+      <c r="H87" s="415"/>
       <c r="I87" s="217"/>
       <c r="J87" s="217"/>
       <c r="L87" s="214"/>
@@ -7917,9 +7922,9 @@
       <c r="C88" s="215"/>
       <c r="D88" s="216"/>
       <c r="E88" s="216"/>
-      <c r="F88" s="429"/>
-      <c r="G88" s="429"/>
-      <c r="H88" s="429"/>
+      <c r="F88" s="415"/>
+      <c r="G88" s="415"/>
+      <c r="H88" s="415"/>
       <c r="I88" s="217"/>
       <c r="J88" s="217"/>
       <c r="L88" s="214"/>
@@ -7935,9 +7940,9 @@
       <c r="C89" s="215"/>
       <c r="D89" s="216"/>
       <c r="E89" s="216"/>
-      <c r="F89" s="429"/>
-      <c r="G89" s="429"/>
-      <c r="H89" s="429"/>
+      <c r="F89" s="415"/>
+      <c r="G89" s="415"/>
+      <c r="H89" s="415"/>
       <c r="I89" s="217"/>
       <c r="J89" s="217"/>
       <c r="L89" s="214"/>
@@ -7953,9 +7958,9 @@
       <c r="C90" s="215"/>
       <c r="D90" s="216"/>
       <c r="E90" s="216"/>
-      <c r="F90" s="429"/>
-      <c r="G90" s="429"/>
-      <c r="H90" s="429"/>
+      <c r="F90" s="415"/>
+      <c r="G90" s="415"/>
+      <c r="H90" s="415"/>
       <c r="I90" s="217"/>
       <c r="J90" s="217"/>
       <c r="L90" s="214"/>
@@ -7971,9 +7976,9 @@
       <c r="C91" s="215"/>
       <c r="D91" s="216"/>
       <c r="E91" s="216"/>
-      <c r="F91" s="429"/>
-      <c r="G91" s="429"/>
-      <c r="H91" s="429"/>
+      <c r="F91" s="415"/>
+      <c r="G91" s="415"/>
+      <c r="H91" s="415"/>
       <c r="I91" s="217"/>
       <c r="J91" s="217"/>
       <c r="L91" s="214"/>
@@ -7989,9 +7994,9 @@
       <c r="C92" s="215"/>
       <c r="D92" s="216"/>
       <c r="E92" s="216"/>
-      <c r="F92" s="429"/>
-      <c r="G92" s="429"/>
-      <c r="H92" s="429"/>
+      <c r="F92" s="415"/>
+      <c r="G92" s="415"/>
+      <c r="H92" s="415"/>
       <c r="I92" s="217"/>
       <c r="J92" s="217"/>
       <c r="L92" s="214"/>
@@ -8007,9 +8012,9 @@
       <c r="C93" s="215"/>
       <c r="D93" s="216"/>
       <c r="E93" s="216"/>
-      <c r="F93" s="429"/>
-      <c r="G93" s="429"/>
-      <c r="H93" s="429"/>
+      <c r="F93" s="415"/>
+      <c r="G93" s="415"/>
+      <c r="H93" s="415"/>
       <c r="I93" s="217"/>
       <c r="J93" s="217"/>
       <c r="L93" s="214"/>
@@ -8025,9 +8030,9 @@
       <c r="C94" s="215"/>
       <c r="D94" s="216"/>
       <c r="E94" s="216"/>
-      <c r="F94" s="429"/>
-      <c r="G94" s="429"/>
-      <c r="H94" s="429"/>
+      <c r="F94" s="415"/>
+      <c r="G94" s="415"/>
+      <c r="H94" s="415"/>
       <c r="I94" s="217"/>
       <c r="J94" s="217"/>
       <c r="L94" s="214"/>
@@ -8043,9 +8048,9 @@
       <c r="C95" s="215"/>
       <c r="D95" s="216"/>
       <c r="E95" s="216"/>
-      <c r="F95" s="429"/>
-      <c r="G95" s="429"/>
-      <c r="H95" s="429"/>
+      <c r="F95" s="415"/>
+      <c r="G95" s="415"/>
+      <c r="H95" s="415"/>
       <c r="I95" s="217"/>
       <c r="J95" s="217"/>
       <c r="L95" s="214"/>
@@ -8061,9 +8066,9 @@
       <c r="C96" s="215"/>
       <c r="D96" s="216"/>
       <c r="E96" s="216"/>
-      <c r="F96" s="429"/>
-      <c r="G96" s="429"/>
-      <c r="H96" s="429"/>
+      <c r="F96" s="415"/>
+      <c r="G96" s="415"/>
+      <c r="H96" s="415"/>
       <c r="I96" s="217"/>
       <c r="J96" s="217"/>
       <c r="L96" s="214"/>
@@ -8079,9 +8084,9 @@
       <c r="C97" s="215"/>
       <c r="D97" s="216"/>
       <c r="E97" s="216"/>
-      <c r="F97" s="429"/>
-      <c r="G97" s="429"/>
-      <c r="H97" s="429"/>
+      <c r="F97" s="415"/>
+      <c r="G97" s="415"/>
+      <c r="H97" s="415"/>
       <c r="I97" s="217"/>
       <c r="J97" s="217"/>
       <c r="L97" s="214"/>
@@ -8097,9 +8102,9 @@
       <c r="C98" s="215"/>
       <c r="D98" s="216"/>
       <c r="E98" s="216"/>
-      <c r="F98" s="429"/>
-      <c r="G98" s="429"/>
-      <c r="H98" s="429"/>
+      <c r="F98" s="415"/>
+      <c r="G98" s="415"/>
+      <c r="H98" s="415"/>
       <c r="I98" s="217"/>
       <c r="J98" s="217"/>
       <c r="L98" s="214"/>
@@ -8115,9 +8120,9 @@
       <c r="C99" s="215"/>
       <c r="D99" s="216"/>
       <c r="E99" s="216"/>
-      <c r="F99" s="429"/>
-      <c r="G99" s="429"/>
-      <c r="H99" s="429"/>
+      <c r="F99" s="415"/>
+      <c r="G99" s="415"/>
+      <c r="H99" s="415"/>
       <c r="I99" s="217"/>
       <c r="J99" s="217"/>
       <c r="L99" s="214"/>
@@ -8133,9 +8138,9 @@
       <c r="C100" s="215"/>
       <c r="D100" s="216"/>
       <c r="E100" s="216"/>
-      <c r="F100" s="429"/>
-      <c r="G100" s="429"/>
-      <c r="H100" s="429"/>
+      <c r="F100" s="415"/>
+      <c r="G100" s="415"/>
+      <c r="H100" s="415"/>
       <c r="I100" s="217"/>
       <c r="J100" s="217"/>
       <c r="L100" s="214"/>
@@ -8151,9 +8156,9 @@
       <c r="C101" s="215"/>
       <c r="D101" s="216"/>
       <c r="E101" s="216"/>
-      <c r="F101" s="429"/>
-      <c r="G101" s="429"/>
-      <c r="H101" s="429"/>
+      <c r="F101" s="415"/>
+      <c r="G101" s="415"/>
+      <c r="H101" s="415"/>
       <c r="I101" s="217"/>
       <c r="J101" s="217"/>
       <c r="L101" s="214"/>
@@ -8169,9 +8174,9 @@
       <c r="C102" s="215"/>
       <c r="D102" s="216"/>
       <c r="E102" s="216"/>
-      <c r="F102" s="429"/>
-      <c r="G102" s="429"/>
-      <c r="H102" s="429"/>
+      <c r="F102" s="415"/>
+      <c r="G102" s="415"/>
+      <c r="H102" s="415"/>
       <c r="I102" s="217"/>
       <c r="J102" s="217"/>
       <c r="L102" s="214"/>
@@ -8187,9 +8192,9 @@
       <c r="C103" s="215"/>
       <c r="D103" s="216"/>
       <c r="E103" s="216"/>
-      <c r="F103" s="429"/>
-      <c r="G103" s="429"/>
-      <c r="H103" s="429"/>
+      <c r="F103" s="415"/>
+      <c r="G103" s="415"/>
+      <c r="H103" s="415"/>
       <c r="I103" s="217"/>
       <c r="J103" s="217"/>
       <c r="L103" s="214"/>
@@ -8205,9 +8210,9 @@
       <c r="C104" s="215"/>
       <c r="D104" s="216"/>
       <c r="E104" s="216"/>
-      <c r="F104" s="429"/>
-      <c r="G104" s="429"/>
-      <c r="H104" s="429"/>
+      <c r="F104" s="415"/>
+      <c r="G104" s="415"/>
+      <c r="H104" s="415"/>
       <c r="I104" s="217"/>
       <c r="J104" s="217"/>
       <c r="L104" s="214"/>
@@ -8223,9 +8228,9 @@
       <c r="C105" s="215"/>
       <c r="D105" s="216"/>
       <c r="E105" s="216"/>
-      <c r="F105" s="429"/>
-      <c r="G105" s="429"/>
-      <c r="H105" s="429"/>
+      <c r="F105" s="415"/>
+      <c r="G105" s="415"/>
+      <c r="H105" s="415"/>
       <c r="I105" s="217"/>
       <c r="J105" s="217"/>
       <c r="L105" s="214"/>
@@ -8241,9 +8246,9 @@
       <c r="C106" s="215"/>
       <c r="D106" s="216"/>
       <c r="E106" s="216"/>
-      <c r="F106" s="429"/>
-      <c r="G106" s="429"/>
-      <c r="H106" s="429"/>
+      <c r="F106" s="415"/>
+      <c r="G106" s="415"/>
+      <c r="H106" s="415"/>
       <c r="I106" s="217"/>
       <c r="J106" s="217"/>
       <c r="L106" s="214"/>
@@ -8259,9 +8264,9 @@
       <c r="C107" s="215"/>
       <c r="D107" s="216"/>
       <c r="E107" s="216"/>
-      <c r="F107" s="429"/>
-      <c r="G107" s="429"/>
-      <c r="H107" s="429"/>
+      <c r="F107" s="415"/>
+      <c r="G107" s="415"/>
+      <c r="H107" s="415"/>
       <c r="I107" s="217"/>
       <c r="J107" s="217"/>
       <c r="L107" s="214"/>
@@ -8277,9 +8282,9 @@
       <c r="C108" s="215"/>
       <c r="D108" s="216"/>
       <c r="E108" s="216"/>
-      <c r="F108" s="429"/>
-      <c r="G108" s="429"/>
-      <c r="H108" s="429"/>
+      <c r="F108" s="415"/>
+      <c r="G108" s="415"/>
+      <c r="H108" s="415"/>
       <c r="I108" s="217"/>
       <c r="J108" s="217"/>
       <c r="L108" s="214"/>
@@ -8295,9 +8300,9 @@
       <c r="C109" s="215"/>
       <c r="D109" s="216"/>
       <c r="E109" s="216"/>
-      <c r="F109" s="429"/>
-      <c r="G109" s="429"/>
-      <c r="H109" s="429"/>
+      <c r="F109" s="415"/>
+      <c r="G109" s="415"/>
+      <c r="H109" s="415"/>
       <c r="I109" s="217"/>
       <c r="J109" s="217"/>
       <c r="L109" s="214"/>
@@ -8313,9 +8318,9 @@
       <c r="C110" s="215"/>
       <c r="D110" s="216"/>
       <c r="E110" s="216"/>
-      <c r="F110" s="429"/>
-      <c r="G110" s="429"/>
-      <c r="H110" s="429"/>
+      <c r="F110" s="415"/>
+      <c r="G110" s="415"/>
+      <c r="H110" s="415"/>
       <c r="I110" s="217"/>
       <c r="J110" s="217"/>
       <c r="L110" s="214"/>
@@ -8331,9 +8336,9 @@
       <c r="C111" s="215"/>
       <c r="D111" s="216"/>
       <c r="E111" s="216"/>
-      <c r="F111" s="429"/>
-      <c r="G111" s="429"/>
-      <c r="H111" s="429"/>
+      <c r="F111" s="415"/>
+      <c r="G111" s="415"/>
+      <c r="H111" s="415"/>
       <c r="I111" s="217"/>
       <c r="J111" s="217"/>
       <c r="L111" s="214"/>
@@ -8349,9 +8354,9 @@
       <c r="C112" s="215"/>
       <c r="D112" s="216"/>
       <c r="E112" s="216"/>
-      <c r="F112" s="429"/>
-      <c r="G112" s="429"/>
-      <c r="H112" s="429"/>
+      <c r="F112" s="415"/>
+      <c r="G112" s="415"/>
+      <c r="H112" s="415"/>
       <c r="I112" s="217"/>
       <c r="J112" s="217"/>
       <c r="L112" s="214"/>
@@ -8367,9 +8372,9 @@
       <c r="C113" s="215"/>
       <c r="D113" s="216"/>
       <c r="E113" s="216"/>
-      <c r="F113" s="429"/>
-      <c r="G113" s="429"/>
-      <c r="H113" s="429"/>
+      <c r="F113" s="415"/>
+      <c r="G113" s="415"/>
+      <c r="H113" s="415"/>
       <c r="I113" s="217"/>
       <c r="J113" s="217"/>
       <c r="L113" s="214"/>
@@ -8385,9 +8390,9 @@
       <c r="C114" s="215"/>
       <c r="D114" s="216"/>
       <c r="E114" s="216"/>
-      <c r="F114" s="429"/>
-      <c r="G114" s="429"/>
-      <c r="H114" s="429"/>
+      <c r="F114" s="415"/>
+      <c r="G114" s="415"/>
+      <c r="H114" s="415"/>
       <c r="I114" s="217"/>
       <c r="J114" s="217"/>
       <c r="L114" s="214"/>
@@ -8403,9 +8408,9 @@
       <c r="C115" s="215"/>
       <c r="D115" s="216"/>
       <c r="E115" s="216"/>
-      <c r="F115" s="429"/>
-      <c r="G115" s="429"/>
-      <c r="H115" s="429"/>
+      <c r="F115" s="415"/>
+      <c r="G115" s="415"/>
+      <c r="H115" s="415"/>
       <c r="I115" s="217"/>
       <c r="J115" s="217"/>
       <c r="L115" s="214"/>
@@ -8421,9 +8426,9 @@
       <c r="C116" s="215"/>
       <c r="D116" s="216"/>
       <c r="E116" s="216"/>
-      <c r="F116" s="429"/>
-      <c r="G116" s="429"/>
-      <c r="H116" s="429"/>
+      <c r="F116" s="415"/>
+      <c r="G116" s="415"/>
+      <c r="H116" s="415"/>
       <c r="I116" s="217"/>
       <c r="J116" s="217"/>
       <c r="L116" s="214"/>
@@ -8439,9 +8444,9 @@
       <c r="C117" s="215"/>
       <c r="D117" s="216"/>
       <c r="E117" s="216"/>
-      <c r="F117" s="429"/>
-      <c r="G117" s="429"/>
-      <c r="H117" s="429"/>
+      <c r="F117" s="415"/>
+      <c r="G117" s="415"/>
+      <c r="H117" s="415"/>
       <c r="I117" s="217"/>
       <c r="J117" s="217"/>
       <c r="L117" s="214"/>
@@ -8457,9 +8462,9 @@
       <c r="C118" s="215"/>
       <c r="D118" s="216"/>
       <c r="E118" s="216"/>
-      <c r="F118" s="429"/>
-      <c r="G118" s="429"/>
-      <c r="H118" s="429"/>
+      <c r="F118" s="415"/>
+      <c r="G118" s="415"/>
+      <c r="H118" s="415"/>
       <c r="I118" s="217"/>
       <c r="J118" s="217"/>
       <c r="L118" s="214"/>
@@ -8475,9 +8480,9 @@
       <c r="C119" s="215"/>
       <c r="D119" s="216"/>
       <c r="E119" s="216"/>
-      <c r="F119" s="429"/>
-      <c r="G119" s="429"/>
-      <c r="H119" s="429"/>
+      <c r="F119" s="415"/>
+      <c r="G119" s="415"/>
+      <c r="H119" s="415"/>
       <c r="I119" s="217"/>
       <c r="J119" s="217"/>
       <c r="L119" s="214"/>
@@ -8493,9 +8498,9 @@
       <c r="C120" s="215"/>
       <c r="D120" s="216"/>
       <c r="E120" s="216"/>
-      <c r="F120" s="429"/>
-      <c r="G120" s="429"/>
-      <c r="H120" s="429"/>
+      <c r="F120" s="415"/>
+      <c r="G120" s="415"/>
+      <c r="H120" s="415"/>
       <c r="I120" s="217"/>
       <c r="J120" s="217"/>
       <c r="L120" s="214"/>
@@ -8511,9 +8516,9 @@
       <c r="C121" s="215"/>
       <c r="D121" s="216"/>
       <c r="E121" s="216"/>
-      <c r="F121" s="429"/>
-      <c r="G121" s="429"/>
-      <c r="H121" s="429"/>
+      <c r="F121" s="415"/>
+      <c r="G121" s="415"/>
+      <c r="H121" s="415"/>
       <c r="I121" s="217"/>
       <c r="J121" s="217"/>
       <c r="L121" s="214"/>
@@ -8529,9 +8534,9 @@
       <c r="C122" s="215"/>
       <c r="D122" s="216"/>
       <c r="E122" s="216"/>
-      <c r="F122" s="429"/>
-      <c r="G122" s="429"/>
-      <c r="H122" s="429"/>
+      <c r="F122" s="415"/>
+      <c r="G122" s="415"/>
+      <c r="H122" s="415"/>
       <c r="I122" s="217"/>
       <c r="J122" s="217"/>
       <c r="L122" s="214"/>
@@ -8547,9 +8552,9 @@
       <c r="C123" s="215"/>
       <c r="D123" s="216"/>
       <c r="E123" s="216"/>
-      <c r="F123" s="429"/>
-      <c r="G123" s="429"/>
-      <c r="H123" s="429"/>
+      <c r="F123" s="415"/>
+      <c r="G123" s="415"/>
+      <c r="H123" s="415"/>
       <c r="I123" s="217"/>
       <c r="J123" s="217"/>
       <c r="L123" s="214"/>
@@ -8565,9 +8570,9 @@
       <c r="C124" s="215"/>
       <c r="D124" s="216"/>
       <c r="E124" s="216"/>
-      <c r="F124" s="429"/>
-      <c r="G124" s="429"/>
-      <c r="H124" s="429"/>
+      <c r="F124" s="415"/>
+      <c r="G124" s="415"/>
+      <c r="H124" s="415"/>
       <c r="I124" s="217"/>
       <c r="J124" s="217"/>
       <c r="L124" s="214"/>
@@ -8583,9 +8588,9 @@
       <c r="C125" s="215"/>
       <c r="D125" s="216"/>
       <c r="E125" s="216"/>
-      <c r="F125" s="429"/>
-      <c r="G125" s="429"/>
-      <c r="H125" s="429"/>
+      <c r="F125" s="415"/>
+      <c r="G125" s="415"/>
+      <c r="H125" s="415"/>
       <c r="I125" s="217"/>
       <c r="J125" s="217"/>
       <c r="L125" s="214"/>
@@ -8601,9 +8606,9 @@
       <c r="C126" s="215"/>
       <c r="D126" s="216"/>
       <c r="E126" s="216"/>
-      <c r="F126" s="429"/>
-      <c r="G126" s="429"/>
-      <c r="H126" s="429"/>
+      <c r="F126" s="415"/>
+      <c r="G126" s="415"/>
+      <c r="H126" s="415"/>
       <c r="I126" s="217"/>
       <c r="J126" s="217"/>
       <c r="L126" s="214"/>
@@ -8619,9 +8624,9 @@
       <c r="C127" s="215"/>
       <c r="D127" s="216"/>
       <c r="E127" s="216"/>
-      <c r="F127" s="429"/>
-      <c r="G127" s="429"/>
-      <c r="H127" s="429"/>
+      <c r="F127" s="415"/>
+      <c r="G127" s="415"/>
+      <c r="H127" s="415"/>
       <c r="I127" s="217"/>
       <c r="J127" s="217"/>
       <c r="L127" s="214"/>
@@ -8637,9 +8642,9 @@
       <c r="C128" s="215"/>
       <c r="D128" s="216"/>
       <c r="E128" s="216"/>
-      <c r="F128" s="429"/>
-      <c r="G128" s="429"/>
-      <c r="H128" s="429"/>
+      <c r="F128" s="415"/>
+      <c r="G128" s="415"/>
+      <c r="H128" s="415"/>
       <c r="I128" s="217"/>
       <c r="J128" s="217"/>
       <c r="L128" s="214"/>
@@ -8655,9 +8660,9 @@
       <c r="C129" s="215"/>
       <c r="D129" s="216"/>
       <c r="E129" s="216"/>
-      <c r="F129" s="429"/>
-      <c r="G129" s="429"/>
-      <c r="H129" s="429"/>
+      <c r="F129" s="415"/>
+      <c r="G129" s="415"/>
+      <c r="H129" s="415"/>
       <c r="I129" s="217"/>
       <c r="J129" s="217"/>
       <c r="L129" s="214"/>
@@ -8673,9 +8678,9 @@
       <c r="C130" s="215"/>
       <c r="D130" s="216"/>
       <c r="E130" s="216"/>
-      <c r="F130" s="429"/>
-      <c r="G130" s="429"/>
-      <c r="H130" s="429"/>
+      <c r="F130" s="415"/>
+      <c r="G130" s="415"/>
+      <c r="H130" s="415"/>
       <c r="I130" s="217"/>
       <c r="J130" s="217"/>
       <c r="L130" s="214"/>
@@ -8691,9 +8696,9 @@
       <c r="C131" s="215"/>
       <c r="D131" s="216"/>
       <c r="E131" s="216"/>
-      <c r="F131" s="429"/>
-      <c r="G131" s="429"/>
-      <c r="H131" s="429"/>
+      <c r="F131" s="415"/>
+      <c r="G131" s="415"/>
+      <c r="H131" s="415"/>
       <c r="I131" s="217"/>
       <c r="J131" s="217"/>
       <c r="L131" s="214"/>
@@ -8709,9 +8714,9 @@
       <c r="C132" s="215"/>
       <c r="D132" s="216"/>
       <c r="E132" s="216"/>
-      <c r="F132" s="429"/>
-      <c r="G132" s="429"/>
-      <c r="H132" s="429"/>
+      <c r="F132" s="415"/>
+      <c r="G132" s="415"/>
+      <c r="H132" s="415"/>
       <c r="I132" s="217"/>
       <c r="J132" s="217"/>
       <c r="L132" s="214"/>
@@ -8727,9 +8732,9 @@
       <c r="C133" s="215"/>
       <c r="D133" s="216"/>
       <c r="E133" s="216"/>
-      <c r="F133" s="429"/>
-      <c r="G133" s="429"/>
-      <c r="H133" s="429"/>
+      <c r="F133" s="415"/>
+      <c r="G133" s="415"/>
+      <c r="H133" s="415"/>
       <c r="I133" s="217"/>
       <c r="J133" s="217"/>
       <c r="L133" s="214"/>
@@ -8745,9 +8750,9 @@
       <c r="C134" s="215"/>
       <c r="D134" s="216"/>
       <c r="E134" s="216"/>
-      <c r="F134" s="429"/>
-      <c r="G134" s="429"/>
-      <c r="H134" s="429"/>
+      <c r="F134" s="415"/>
+      <c r="G134" s="415"/>
+      <c r="H134" s="415"/>
       <c r="I134" s="217"/>
       <c r="J134" s="217"/>
       <c r="L134" s="214"/>
@@ -8763,9 +8768,9 @@
       <c r="C135" s="215"/>
       <c r="D135" s="216"/>
       <c r="E135" s="216"/>
-      <c r="F135" s="429"/>
-      <c r="G135" s="429"/>
-      <c r="H135" s="429"/>
+      <c r="F135" s="415"/>
+      <c r="G135" s="415"/>
+      <c r="H135" s="415"/>
       <c r="I135" s="217"/>
       <c r="J135" s="217"/>
       <c r="L135" s="214"/>
@@ -8781,9 +8786,9 @@
       <c r="C136" s="215"/>
       <c r="D136" s="216"/>
       <c r="E136" s="216"/>
-      <c r="F136" s="429"/>
-      <c r="G136" s="429"/>
-      <c r="H136" s="429"/>
+      <c r="F136" s="415"/>
+      <c r="G136" s="415"/>
+      <c r="H136" s="415"/>
       <c r="I136" s="217"/>
       <c r="J136" s="217"/>
       <c r="L136" s="214"/>
@@ -8799,9 +8804,9 @@
       <c r="C137" s="215"/>
       <c r="D137" s="216"/>
       <c r="E137" s="216"/>
-      <c r="F137" s="429"/>
-      <c r="G137" s="429"/>
-      <c r="H137" s="429"/>
+      <c r="F137" s="415"/>
+      <c r="G137" s="415"/>
+      <c r="H137" s="415"/>
       <c r="I137" s="217"/>
       <c r="J137" s="217"/>
       <c r="L137" s="214"/>
@@ -8817,9 +8822,9 @@
       <c r="C138" s="215"/>
       <c r="D138" s="216"/>
       <c r="E138" s="216"/>
-      <c r="F138" s="429"/>
-      <c r="G138" s="429"/>
-      <c r="H138" s="429"/>
+      <c r="F138" s="415"/>
+      <c r="G138" s="415"/>
+      <c r="H138" s="415"/>
       <c r="I138" s="217"/>
       <c r="J138" s="217"/>
       <c r="L138" s="214"/>
@@ -8835,9 +8840,9 @@
       <c r="C139" s="215"/>
       <c r="D139" s="216"/>
       <c r="E139" s="216"/>
-      <c r="F139" s="429"/>
-      <c r="G139" s="429"/>
-      <c r="H139" s="429"/>
+      <c r="F139" s="415"/>
+      <c r="G139" s="415"/>
+      <c r="H139" s="415"/>
       <c r="I139" s="217"/>
       <c r="J139" s="217"/>
       <c r="L139" s="214"/>
@@ -8853,9 +8858,9 @@
       <c r="C140" s="215"/>
       <c r="D140" s="216"/>
       <c r="E140" s="216"/>
-      <c r="F140" s="429"/>
-      <c r="G140" s="429"/>
-      <c r="H140" s="429"/>
+      <c r="F140" s="415"/>
+      <c r="G140" s="415"/>
+      <c r="H140" s="415"/>
       <c r="I140" s="217"/>
       <c r="J140" s="217"/>
       <c r="L140" s="214"/>
@@ -8871,9 +8876,9 @@
       <c r="C141" s="215"/>
       <c r="D141" s="216"/>
       <c r="E141" s="216"/>
-      <c r="F141" s="429"/>
-      <c r="G141" s="429"/>
-      <c r="H141" s="429"/>
+      <c r="F141" s="415"/>
+      <c r="G141" s="415"/>
+      <c r="H141" s="415"/>
       <c r="I141" s="217"/>
       <c r="J141" s="217"/>
       <c r="L141" s="214"/>
@@ -8889,9 +8894,9 @@
       <c r="C142" s="215"/>
       <c r="D142" s="216"/>
       <c r="E142" s="216"/>
-      <c r="F142" s="429"/>
-      <c r="G142" s="429"/>
-      <c r="H142" s="429"/>
+      <c r="F142" s="415"/>
+      <c r="G142" s="415"/>
+      <c r="H142" s="415"/>
       <c r="I142" s="217"/>
       <c r="J142" s="217"/>
       <c r="L142" s="214"/>
@@ -8907,9 +8912,9 @@
       <c r="C143" s="215"/>
       <c r="D143" s="216"/>
       <c r="E143" s="216"/>
-      <c r="F143" s="429"/>
-      <c r="G143" s="429"/>
-      <c r="H143" s="429"/>
+      <c r="F143" s="415"/>
+      <c r="G143" s="415"/>
+      <c r="H143" s="415"/>
       <c r="I143" s="217"/>
       <c r="J143" s="217"/>
       <c r="L143" s="214"/>
@@ -8925,9 +8930,9 @@
       <c r="C144" s="215"/>
       <c r="D144" s="216"/>
       <c r="E144" s="216"/>
-      <c r="F144" s="429"/>
-      <c r="G144" s="429"/>
-      <c r="H144" s="429"/>
+      <c r="F144" s="415"/>
+      <c r="G144" s="415"/>
+      <c r="H144" s="415"/>
       <c r="I144" s="217"/>
       <c r="J144" s="217"/>
       <c r="L144" s="214"/>
@@ -8943,9 +8948,9 @@
       <c r="C145" s="215"/>
       <c r="D145" s="216"/>
       <c r="E145" s="216"/>
-      <c r="F145" s="429"/>
-      <c r="G145" s="429"/>
-      <c r="H145" s="429"/>
+      <c r="F145" s="415"/>
+      <c r="G145" s="415"/>
+      <c r="H145" s="415"/>
       <c r="I145" s="217"/>
       <c r="J145" s="217"/>
       <c r="L145" s="214"/>
@@ -8961,9 +8966,9 @@
       <c r="C146" s="215"/>
       <c r="D146" s="216"/>
       <c r="E146" s="216"/>
-      <c r="F146" s="429"/>
-      <c r="G146" s="429"/>
-      <c r="H146" s="429"/>
+      <c r="F146" s="415"/>
+      <c r="G146" s="415"/>
+      <c r="H146" s="415"/>
       <c r="I146" s="217"/>
       <c r="J146" s="217"/>
       <c r="L146" s="214"/>
@@ -8979,9 +8984,9 @@
       <c r="C147" s="215"/>
       <c r="D147" s="216"/>
       <c r="E147" s="216"/>
-      <c r="F147" s="429"/>
-      <c r="G147" s="429"/>
-      <c r="H147" s="429"/>
+      <c r="F147" s="415"/>
+      <c r="G147" s="415"/>
+      <c r="H147" s="415"/>
       <c r="I147" s="217"/>
       <c r="J147" s="217"/>
       <c r="L147" s="214"/>
@@ -8997,9 +9002,9 @@
       <c r="C148" s="215"/>
       <c r="D148" s="216"/>
       <c r="E148" s="216"/>
-      <c r="F148" s="429"/>
-      <c r="G148" s="429"/>
-      <c r="H148" s="429"/>
+      <c r="F148" s="415"/>
+      <c r="G148" s="415"/>
+      <c r="H148" s="415"/>
       <c r="I148" s="217"/>
       <c r="J148" s="217"/>
       <c r="L148" s="214"/>
@@ -9015,9 +9020,9 @@
       <c r="C149" s="215"/>
       <c r="D149" s="216"/>
       <c r="E149" s="216"/>
-      <c r="F149" s="429"/>
-      <c r="G149" s="429"/>
-      <c r="H149" s="429"/>
+      <c r="F149" s="415"/>
+      <c r="G149" s="415"/>
+      <c r="H149" s="415"/>
       <c r="I149" s="217"/>
       <c r="J149" s="217"/>
       <c r="L149" s="214"/>
@@ -9033,9 +9038,9 @@
       <c r="C150" s="215"/>
       <c r="D150" s="216"/>
       <c r="E150" s="216"/>
-      <c r="F150" s="429"/>
-      <c r="G150" s="429"/>
-      <c r="H150" s="429"/>
+      <c r="F150" s="415"/>
+      <c r="G150" s="415"/>
+      <c r="H150" s="415"/>
       <c r="I150" s="217"/>
       <c r="J150" s="217"/>
       <c r="L150" s="214"/>
@@ -9051,9 +9056,9 @@
       <c r="C151" s="215"/>
       <c r="D151" s="216"/>
       <c r="E151" s="216"/>
-      <c r="F151" s="429"/>
-      <c r="G151" s="429"/>
-      <c r="H151" s="429"/>
+      <c r="F151" s="415"/>
+      <c r="G151" s="415"/>
+      <c r="H151" s="415"/>
       <c r="I151" s="217"/>
       <c r="J151" s="217"/>
       <c r="L151" s="214"/>
@@ -9069,9 +9074,9 @@
       <c r="C152" s="215"/>
       <c r="D152" s="216"/>
       <c r="E152" s="216"/>
-      <c r="F152" s="429"/>
-      <c r="G152" s="429"/>
-      <c r="H152" s="429"/>
+      <c r="F152" s="415"/>
+      <c r="G152" s="415"/>
+      <c r="H152" s="415"/>
       <c r="I152" s="217"/>
       <c r="J152" s="217"/>
       <c r="L152" s="214"/>
@@ -9087,9 +9092,9 @@
       <c r="C153" s="215"/>
       <c r="D153" s="216"/>
       <c r="E153" s="216"/>
-      <c r="F153" s="429"/>
-      <c r="G153" s="429"/>
-      <c r="H153" s="429"/>
+      <c r="F153" s="415"/>
+      <c r="G153" s="415"/>
+      <c r="H153" s="415"/>
       <c r="I153" s="217"/>
       <c r="J153" s="217"/>
       <c r="L153" s="214"/>
@@ -9105,9 +9110,9 @@
       <c r="C154" s="215"/>
       <c r="D154" s="216"/>
       <c r="E154" s="216"/>
-      <c r="F154" s="429"/>
-      <c r="G154" s="429"/>
-      <c r="H154" s="429"/>
+      <c r="F154" s="415"/>
+      <c r="G154" s="415"/>
+      <c r="H154" s="415"/>
       <c r="I154" s="217"/>
       <c r="J154" s="217"/>
       <c r="L154" s="214"/>
@@ -9123,9 +9128,9 @@
       <c r="C155" s="215"/>
       <c r="D155" s="216"/>
       <c r="E155" s="216"/>
-      <c r="F155" s="429"/>
-      <c r="G155" s="429"/>
-      <c r="H155" s="429"/>
+      <c r="F155" s="415"/>
+      <c r="G155" s="415"/>
+      <c r="H155" s="415"/>
       <c r="I155" s="217"/>
       <c r="J155" s="217"/>
       <c r="L155" s="214"/>
@@ -9141,9 +9146,9 @@
       <c r="C156" s="215"/>
       <c r="D156" s="216"/>
       <c r="E156" s="216"/>
-      <c r="F156" s="429"/>
-      <c r="G156" s="429"/>
-      <c r="H156" s="429"/>
+      <c r="F156" s="415"/>
+      <c r="G156" s="415"/>
+      <c r="H156" s="415"/>
       <c r="I156" s="217"/>
       <c r="J156" s="217"/>
       <c r="L156" s="214"/>
@@ -9159,9 +9164,9 @@
       <c r="C157" s="215"/>
       <c r="D157" s="216"/>
       <c r="E157" s="216"/>
-      <c r="F157" s="429"/>
-      <c r="G157" s="429"/>
-      <c r="H157" s="429"/>
+      <c r="F157" s="415"/>
+      <c r="G157" s="415"/>
+      <c r="H157" s="415"/>
       <c r="I157" s="217"/>
       <c r="J157" s="217"/>
       <c r="L157" s="214"/>
@@ -9177,9 +9182,9 @@
       <c r="C158" s="215"/>
       <c r="D158" s="216"/>
       <c r="E158" s="216"/>
-      <c r="F158" s="429"/>
-      <c r="G158" s="429"/>
-      <c r="H158" s="429"/>
+      <c r="F158" s="415"/>
+      <c r="G158" s="415"/>
+      <c r="H158" s="415"/>
       <c r="I158" s="217"/>
       <c r="J158" s="217"/>
       <c r="L158" s="214"/>
@@ -9195,9 +9200,9 @@
       <c r="C159" s="215"/>
       <c r="D159" s="216"/>
       <c r="E159" s="216"/>
-      <c r="F159" s="429"/>
-      <c r="G159" s="429"/>
-      <c r="H159" s="429"/>
+      <c r="F159" s="415"/>
+      <c r="G159" s="415"/>
+      <c r="H159" s="415"/>
       <c r="I159" s="217"/>
       <c r="J159" s="217"/>
       <c r="L159" s="214"/>
@@ -9213,9 +9218,9 @@
       <c r="C160" s="215"/>
       <c r="D160" s="216"/>
       <c r="E160" s="216"/>
-      <c r="F160" s="429"/>
-      <c r="G160" s="429"/>
-      <c r="H160" s="429"/>
+      <c r="F160" s="415"/>
+      <c r="G160" s="415"/>
+      <c r="H160" s="415"/>
       <c r="I160" s="217"/>
       <c r="J160" s="217"/>
       <c r="L160" s="214"/>
@@ -9231,9 +9236,9 @@
       <c r="C161" s="215"/>
       <c r="D161" s="216"/>
       <c r="E161" s="216"/>
-      <c r="F161" s="429"/>
-      <c r="G161" s="429"/>
-      <c r="H161" s="429"/>
+      <c r="F161" s="415"/>
+      <c r="G161" s="415"/>
+      <c r="H161" s="415"/>
       <c r="I161" s="217"/>
       <c r="J161" s="217"/>
       <c r="L161" s="214"/>
@@ -9249,9 +9254,9 @@
       <c r="C162" s="215"/>
       <c r="D162" s="216"/>
       <c r="E162" s="216"/>
-      <c r="F162" s="429"/>
-      <c r="G162" s="429"/>
-      <c r="H162" s="429"/>
+      <c r="F162" s="415"/>
+      <c r="G162" s="415"/>
+      <c r="H162" s="415"/>
       <c r="I162" s="217"/>
       <c r="J162" s="217"/>
       <c r="L162" s="214"/>
@@ -9267,9 +9272,9 @@
       <c r="C163" s="215"/>
       <c r="D163" s="216"/>
       <c r="E163" s="216"/>
-      <c r="F163" s="429"/>
-      <c r="G163" s="429"/>
-      <c r="H163" s="429"/>
+      <c r="F163" s="415"/>
+      <c r="G163" s="415"/>
+      <c r="H163" s="415"/>
       <c r="I163" s="217"/>
       <c r="J163" s="217"/>
       <c r="L163" s="214"/>
@@ -9285,9 +9290,9 @@
       <c r="C164" s="215"/>
       <c r="D164" s="216"/>
       <c r="E164" s="216"/>
-      <c r="F164" s="429"/>
-      <c r="G164" s="429"/>
-      <c r="H164" s="429"/>
+      <c r="F164" s="415"/>
+      <c r="G164" s="415"/>
+      <c r="H164" s="415"/>
       <c r="I164" s="217"/>
       <c r="J164" s="217"/>
       <c r="L164" s="214"/>
@@ -9303,9 +9308,9 @@
       <c r="C165" s="215"/>
       <c r="D165" s="216"/>
       <c r="E165" s="216"/>
-      <c r="F165" s="429"/>
-      <c r="G165" s="429"/>
-      <c r="H165" s="429"/>
+      <c r="F165" s="415"/>
+      <c r="G165" s="415"/>
+      <c r="H165" s="415"/>
       <c r="I165" s="217"/>
       <c r="J165" s="217"/>
       <c r="L165" s="214"/>
@@ -9321,9 +9326,9 @@
       <c r="C166" s="215"/>
       <c r="D166" s="216"/>
       <c r="E166" s="216"/>
-      <c r="F166" s="429"/>
-      <c r="G166" s="429"/>
-      <c r="H166" s="429"/>
+      <c r="F166" s="415"/>
+      <c r="G166" s="415"/>
+      <c r="H166" s="415"/>
       <c r="I166" s="217"/>
       <c r="J166" s="217"/>
       <c r="L166" s="214"/>
@@ -9339,9 +9344,9 @@
       <c r="C167" s="215"/>
       <c r="D167" s="216"/>
       <c r="E167" s="216"/>
-      <c r="F167" s="429"/>
-      <c r="G167" s="429"/>
-      <c r="H167" s="429"/>
+      <c r="F167" s="415"/>
+      <c r="G167" s="415"/>
+      <c r="H167" s="415"/>
       <c r="I167" s="217"/>
       <c r="J167" s="217"/>
       <c r="L167" s="214"/>
@@ -9357,9 +9362,9 @@
       <c r="C168" s="215"/>
       <c r="D168" s="216"/>
       <c r="E168" s="216"/>
-      <c r="F168" s="429"/>
-      <c r="G168" s="429"/>
-      <c r="H168" s="429"/>
+      <c r="F168" s="415"/>
+      <c r="G168" s="415"/>
+      <c r="H168" s="415"/>
       <c r="I168" s="217"/>
       <c r="J168" s="217"/>
       <c r="L168" s="214"/>
@@ -9375,9 +9380,9 @@
       <c r="C169" s="215"/>
       <c r="D169" s="216"/>
       <c r="E169" s="216"/>
-      <c r="F169" s="429"/>
-      <c r="G169" s="429"/>
-      <c r="H169" s="429"/>
+      <c r="F169" s="415"/>
+      <c r="G169" s="415"/>
+      <c r="H169" s="415"/>
       <c r="I169" s="217"/>
       <c r="J169" s="217"/>
       <c r="L169" s="214"/>
@@ -9393,9 +9398,9 @@
       <c r="C170" s="215"/>
       <c r="D170" s="216"/>
       <c r="E170" s="216"/>
-      <c r="F170" s="429"/>
-      <c r="G170" s="429"/>
-      <c r="H170" s="429"/>
+      <c r="F170" s="415"/>
+      <c r="G170" s="415"/>
+      <c r="H170" s="415"/>
       <c r="I170" s="217"/>
       <c r="J170" s="217"/>
       <c r="L170" s="214"/>
@@ -9411,9 +9416,9 @@
       <c r="C171" s="215"/>
       <c r="D171" s="216"/>
       <c r="E171" s="216"/>
-      <c r="F171" s="429"/>
-      <c r="G171" s="429"/>
-      <c r="H171" s="429"/>
+      <c r="F171" s="415"/>
+      <c r="G171" s="415"/>
+      <c r="H171" s="415"/>
       <c r="I171" s="217"/>
       <c r="J171" s="217"/>
       <c r="L171" s="214"/>
@@ -9429,9 +9434,9 @@
       <c r="C172" s="215"/>
       <c r="D172" s="216"/>
       <c r="E172" s="216"/>
-      <c r="F172" s="429"/>
-      <c r="G172" s="429"/>
-      <c r="H172" s="429"/>
+      <c r="F172" s="415"/>
+      <c r="G172" s="415"/>
+      <c r="H172" s="415"/>
       <c r="I172" s="217"/>
       <c r="J172" s="217"/>
       <c r="L172" s="214"/>
@@ -9447,9 +9452,9 @@
       <c r="C173" s="215"/>
       <c r="D173" s="216"/>
       <c r="E173" s="216"/>
-      <c r="F173" s="429"/>
-      <c r="G173" s="429"/>
-      <c r="H173" s="429"/>
+      <c r="F173" s="415"/>
+      <c r="G173" s="415"/>
+      <c r="H173" s="415"/>
       <c r="I173" s="217"/>
       <c r="J173" s="217"/>
       <c r="L173" s="214"/>
@@ -9465,9 +9470,9 @@
       <c r="C174" s="215"/>
       <c r="D174" s="216"/>
       <c r="E174" s="216"/>
-      <c r="F174" s="429"/>
-      <c r="G174" s="429"/>
-      <c r="H174" s="429"/>
+      <c r="F174" s="415"/>
+      <c r="G174" s="415"/>
+      <c r="H174" s="415"/>
       <c r="I174" s="217"/>
       <c r="J174" s="217"/>
       <c r="L174" s="214"/>
@@ -9483,9 +9488,9 @@
       <c r="C175" s="215"/>
       <c r="D175" s="216"/>
       <c r="E175" s="216"/>
-      <c r="F175" s="429"/>
-      <c r="G175" s="429"/>
-      <c r="H175" s="429"/>
+      <c r="F175" s="415"/>
+      <c r="G175" s="415"/>
+      <c r="H175" s="415"/>
       <c r="I175" s="217"/>
       <c r="J175" s="217"/>
       <c r="L175" s="214"/>
@@ -9501,9 +9506,9 @@
       <c r="C176" s="215"/>
       <c r="D176" s="216"/>
       <c r="E176" s="216"/>
-      <c r="F176" s="429"/>
-      <c r="G176" s="429"/>
-      <c r="H176" s="429"/>
+      <c r="F176" s="415"/>
+      <c r="G176" s="415"/>
+      <c r="H176" s="415"/>
       <c r="I176" s="217"/>
       <c r="J176" s="217"/>
       <c r="L176" s="214"/>
@@ -9514,1072 +9519,1072 @@
       <c r="Q176" s="259"/>
     </row>
     <row r="177" spans="6:8">
-      <c r="F177" s="429"/>
-      <c r="G177" s="429"/>
-      <c r="H177" s="429"/>
+      <c r="F177" s="415"/>
+      <c r="G177" s="415"/>
+      <c r="H177" s="415"/>
     </row>
     <row r="178" spans="6:8">
-      <c r="F178" s="429"/>
-      <c r="G178" s="429"/>
-      <c r="H178" s="429"/>
+      <c r="F178" s="415"/>
+      <c r="G178" s="415"/>
+      <c r="H178" s="415"/>
     </row>
     <row r="179" spans="6:8">
-      <c r="F179" s="429"/>
-      <c r="G179" s="429"/>
-      <c r="H179" s="429"/>
+      <c r="F179" s="415"/>
+      <c r="G179" s="415"/>
+      <c r="H179" s="415"/>
     </row>
     <row r="180" spans="6:8">
-      <c r="F180" s="429"/>
-      <c r="G180" s="429"/>
-      <c r="H180" s="429"/>
+      <c r="F180" s="415"/>
+      <c r="G180" s="415"/>
+      <c r="H180" s="415"/>
     </row>
     <row r="181" spans="6:8">
-      <c r="F181" s="429"/>
-      <c r="G181" s="429"/>
-      <c r="H181" s="429"/>
+      <c r="F181" s="415"/>
+      <c r="G181" s="415"/>
+      <c r="H181" s="415"/>
     </row>
     <row r="182" spans="6:8">
-      <c r="F182" s="429"/>
-      <c r="G182" s="429"/>
-      <c r="H182" s="429"/>
+      <c r="F182" s="415"/>
+      <c r="G182" s="415"/>
+      <c r="H182" s="415"/>
     </row>
     <row r="183" spans="6:8">
-      <c r="F183" s="429"/>
-      <c r="G183" s="429"/>
-      <c r="H183" s="429"/>
+      <c r="F183" s="415"/>
+      <c r="G183" s="415"/>
+      <c r="H183" s="415"/>
     </row>
     <row r="184" spans="6:8">
-      <c r="F184" s="429"/>
-      <c r="G184" s="429"/>
-      <c r="H184" s="429"/>
+      <c r="F184" s="415"/>
+      <c r="G184" s="415"/>
+      <c r="H184" s="415"/>
     </row>
     <row r="185" spans="6:8">
-      <c r="F185" s="429"/>
-      <c r="G185" s="429"/>
-      <c r="H185" s="429"/>
+      <c r="F185" s="415"/>
+      <c r="G185" s="415"/>
+      <c r="H185" s="415"/>
     </row>
     <row r="186" spans="6:8">
-      <c r="F186" s="429"/>
-      <c r="G186" s="429"/>
-      <c r="H186" s="429"/>
+      <c r="F186" s="415"/>
+      <c r="G186" s="415"/>
+      <c r="H186" s="415"/>
     </row>
     <row r="187" spans="6:8">
-      <c r="F187" s="429"/>
-      <c r="G187" s="429"/>
-      <c r="H187" s="429"/>
+      <c r="F187" s="415"/>
+      <c r="G187" s="415"/>
+      <c r="H187" s="415"/>
     </row>
     <row r="188" spans="6:8">
-      <c r="F188" s="429"/>
-      <c r="G188" s="429"/>
-      <c r="H188" s="429"/>
+      <c r="F188" s="415"/>
+      <c r="G188" s="415"/>
+      <c r="H188" s="415"/>
     </row>
     <row r="189" spans="6:8">
-      <c r="F189" s="429"/>
-      <c r="G189" s="429"/>
-      <c r="H189" s="429"/>
+      <c r="F189" s="415"/>
+      <c r="G189" s="415"/>
+      <c r="H189" s="415"/>
     </row>
     <row r="190" spans="6:8">
-      <c r="F190" s="429"/>
-      <c r="G190" s="429"/>
-      <c r="H190" s="429"/>
+      <c r="F190" s="415"/>
+      <c r="G190" s="415"/>
+      <c r="H190" s="415"/>
     </row>
     <row r="191" spans="6:8">
-      <c r="F191" s="429"/>
-      <c r="G191" s="429"/>
-      <c r="H191" s="429"/>
+      <c r="F191" s="415"/>
+      <c r="G191" s="415"/>
+      <c r="H191" s="415"/>
     </row>
     <row r="192" spans="6:8">
-      <c r="F192" s="429"/>
-      <c r="G192" s="429"/>
-      <c r="H192" s="429"/>
+      <c r="F192" s="415"/>
+      <c r="G192" s="415"/>
+      <c r="H192" s="415"/>
     </row>
     <row r="193" spans="6:8">
-      <c r="F193" s="429"/>
-      <c r="G193" s="429"/>
-      <c r="H193" s="429"/>
+      <c r="F193" s="415"/>
+      <c r="G193" s="415"/>
+      <c r="H193" s="415"/>
     </row>
     <row r="194" spans="6:8">
-      <c r="F194" s="429"/>
-      <c r="G194" s="429"/>
-      <c r="H194" s="429"/>
+      <c r="F194" s="415"/>
+      <c r="G194" s="415"/>
+      <c r="H194" s="415"/>
     </row>
     <row r="195" spans="6:8">
-      <c r="F195" s="429"/>
-      <c r="G195" s="429"/>
-      <c r="H195" s="429"/>
+      <c r="F195" s="415"/>
+      <c r="G195" s="415"/>
+      <c r="H195" s="415"/>
     </row>
     <row r="196" spans="6:8">
-      <c r="F196" s="429"/>
-      <c r="G196" s="429"/>
-      <c r="H196" s="429"/>
+      <c r="F196" s="415"/>
+      <c r="G196" s="415"/>
+      <c r="H196" s="415"/>
     </row>
     <row r="197" spans="6:8">
-      <c r="F197" s="429"/>
-      <c r="G197" s="429"/>
-      <c r="H197" s="429"/>
+      <c r="F197" s="415"/>
+      <c r="G197" s="415"/>
+      <c r="H197" s="415"/>
     </row>
     <row r="198" spans="6:8">
-      <c r="F198" s="429"/>
-      <c r="G198" s="429"/>
-      <c r="H198" s="429"/>
+      <c r="F198" s="415"/>
+      <c r="G198" s="415"/>
+      <c r="H198" s="415"/>
     </row>
     <row r="199" spans="6:8">
-      <c r="F199" s="429"/>
-      <c r="G199" s="429"/>
-      <c r="H199" s="429"/>
+      <c r="F199" s="415"/>
+      <c r="G199" s="415"/>
+      <c r="H199" s="415"/>
     </row>
     <row r="200" spans="6:8">
-      <c r="F200" s="429"/>
-      <c r="G200" s="429"/>
-      <c r="H200" s="429"/>
+      <c r="F200" s="415"/>
+      <c r="G200" s="415"/>
+      <c r="H200" s="415"/>
     </row>
     <row r="201" spans="6:8">
-      <c r="F201" s="429"/>
-      <c r="G201" s="429"/>
-      <c r="H201" s="429"/>
+      <c r="F201" s="415"/>
+      <c r="G201" s="415"/>
+      <c r="H201" s="415"/>
     </row>
     <row r="202" spans="6:8">
-      <c r="F202" s="429"/>
-      <c r="G202" s="429"/>
-      <c r="H202" s="429"/>
+      <c r="F202" s="415"/>
+      <c r="G202" s="415"/>
+      <c r="H202" s="415"/>
     </row>
     <row r="203" spans="6:8">
-      <c r="F203" s="429"/>
-      <c r="G203" s="429"/>
-      <c r="H203" s="429"/>
+      <c r="F203" s="415"/>
+      <c r="G203" s="415"/>
+      <c r="H203" s="415"/>
     </row>
     <row r="204" spans="6:8">
-      <c r="F204" s="429"/>
-      <c r="G204" s="429"/>
-      <c r="H204" s="429"/>
+      <c r="F204" s="415"/>
+      <c r="G204" s="415"/>
+      <c r="H204" s="415"/>
     </row>
     <row r="205" spans="6:8">
-      <c r="F205" s="429"/>
-      <c r="G205" s="429"/>
-      <c r="H205" s="429"/>
+      <c r="F205" s="415"/>
+      <c r="G205" s="415"/>
+      <c r="H205" s="415"/>
     </row>
     <row r="206" spans="6:8">
-      <c r="F206" s="429"/>
-      <c r="G206" s="429"/>
-      <c r="H206" s="429"/>
+      <c r="F206" s="415"/>
+      <c r="G206" s="415"/>
+      <c r="H206" s="415"/>
     </row>
     <row r="207" spans="6:8">
-      <c r="F207" s="429"/>
-      <c r="G207" s="429"/>
-      <c r="H207" s="429"/>
+      <c r="F207" s="415"/>
+      <c r="G207" s="415"/>
+      <c r="H207" s="415"/>
     </row>
     <row r="208" spans="6:8">
-      <c r="F208" s="429"/>
-      <c r="G208" s="429"/>
-      <c r="H208" s="429"/>
+      <c r="F208" s="415"/>
+      <c r="G208" s="415"/>
+      <c r="H208" s="415"/>
     </row>
     <row r="209" spans="6:8">
-      <c r="F209" s="429"/>
-      <c r="G209" s="429"/>
-      <c r="H209" s="429"/>
+      <c r="F209" s="415"/>
+      <c r="G209" s="415"/>
+      <c r="H209" s="415"/>
     </row>
     <row r="210" spans="6:8">
-      <c r="F210" s="429"/>
-      <c r="G210" s="429"/>
-      <c r="H210" s="429"/>
+      <c r="F210" s="415"/>
+      <c r="G210" s="415"/>
+      <c r="H210" s="415"/>
     </row>
     <row r="211" spans="6:8">
-      <c r="F211" s="429"/>
-      <c r="G211" s="429"/>
-      <c r="H211" s="429"/>
+      <c r="F211" s="415"/>
+      <c r="G211" s="415"/>
+      <c r="H211" s="415"/>
     </row>
     <row r="212" spans="6:8">
-      <c r="F212" s="429"/>
-      <c r="G212" s="429"/>
-      <c r="H212" s="429"/>
+      <c r="F212" s="415"/>
+      <c r="G212" s="415"/>
+      <c r="H212" s="415"/>
     </row>
     <row r="213" spans="6:8">
-      <c r="F213" s="429"/>
-      <c r="G213" s="429"/>
-      <c r="H213" s="429"/>
+      <c r="F213" s="415"/>
+      <c r="G213" s="415"/>
+      <c r="H213" s="415"/>
     </row>
     <row r="214" spans="6:8">
-      <c r="F214" s="429"/>
-      <c r="G214" s="429"/>
-      <c r="H214" s="429"/>
+      <c r="F214" s="415"/>
+      <c r="G214" s="415"/>
+      <c r="H214" s="415"/>
     </row>
     <row r="215" spans="6:8">
-      <c r="F215" s="429"/>
-      <c r="G215" s="429"/>
-      <c r="H215" s="429"/>
+      <c r="F215" s="415"/>
+      <c r="G215" s="415"/>
+      <c r="H215" s="415"/>
     </row>
     <row r="216" spans="6:8">
-      <c r="F216" s="429"/>
-      <c r="G216" s="429"/>
-      <c r="H216" s="429"/>
+      <c r="F216" s="415"/>
+      <c r="G216" s="415"/>
+      <c r="H216" s="415"/>
     </row>
     <row r="217" spans="6:8">
-      <c r="F217" s="429"/>
-      <c r="G217" s="429"/>
-      <c r="H217" s="429"/>
+      <c r="F217" s="415"/>
+      <c r="G217" s="415"/>
+      <c r="H217" s="415"/>
     </row>
     <row r="218" spans="6:8">
-      <c r="F218" s="429"/>
-      <c r="G218" s="429"/>
-      <c r="H218" s="429"/>
+      <c r="F218" s="415"/>
+      <c r="G218" s="415"/>
+      <c r="H218" s="415"/>
     </row>
     <row r="219" spans="6:8">
-      <c r="F219" s="429"/>
-      <c r="G219" s="429"/>
-      <c r="H219" s="429"/>
+      <c r="F219" s="415"/>
+      <c r="G219" s="415"/>
+      <c r="H219" s="415"/>
     </row>
     <row r="220" spans="6:8">
-      <c r="F220" s="429"/>
-      <c r="G220" s="429"/>
-      <c r="H220" s="429"/>
+      <c r="F220" s="415"/>
+      <c r="G220" s="415"/>
+      <c r="H220" s="415"/>
     </row>
     <row r="221" spans="6:8">
-      <c r="F221" s="429"/>
-      <c r="G221" s="429"/>
-      <c r="H221" s="429"/>
+      <c r="F221" s="415"/>
+      <c r="G221" s="415"/>
+      <c r="H221" s="415"/>
     </row>
     <row r="222" spans="6:8">
-      <c r="F222" s="429"/>
-      <c r="G222" s="429"/>
-      <c r="H222" s="429"/>
+      <c r="F222" s="415"/>
+      <c r="G222" s="415"/>
+      <c r="H222" s="415"/>
     </row>
     <row r="223" spans="6:8">
-      <c r="F223" s="429"/>
-      <c r="G223" s="429"/>
-      <c r="H223" s="429"/>
+      <c r="F223" s="415"/>
+      <c r="G223" s="415"/>
+      <c r="H223" s="415"/>
     </row>
     <row r="224" spans="6:8">
-      <c r="F224" s="429"/>
-      <c r="G224" s="429"/>
-      <c r="H224" s="429"/>
+      <c r="F224" s="415"/>
+      <c r="G224" s="415"/>
+      <c r="H224" s="415"/>
     </row>
     <row r="225" spans="6:8">
-      <c r="F225" s="429"/>
-      <c r="G225" s="429"/>
-      <c r="H225" s="429"/>
+      <c r="F225" s="415"/>
+      <c r="G225" s="415"/>
+      <c r="H225" s="415"/>
     </row>
     <row r="226" spans="6:8">
-      <c r="F226" s="429"/>
-      <c r="G226" s="429"/>
-      <c r="H226" s="429"/>
+      <c r="F226" s="415"/>
+      <c r="G226" s="415"/>
+      <c r="H226" s="415"/>
     </row>
     <row r="227" spans="6:8">
-      <c r="F227" s="429"/>
-      <c r="G227" s="429"/>
-      <c r="H227" s="429"/>
+      <c r="F227" s="415"/>
+      <c r="G227" s="415"/>
+      <c r="H227" s="415"/>
     </row>
     <row r="228" spans="6:8">
-      <c r="F228" s="429"/>
-      <c r="G228" s="429"/>
-      <c r="H228" s="429"/>
+      <c r="F228" s="415"/>
+      <c r="G228" s="415"/>
+      <c r="H228" s="415"/>
     </row>
     <row r="229" spans="6:8">
-      <c r="F229" s="429"/>
-      <c r="G229" s="429"/>
-      <c r="H229" s="429"/>
+      <c r="F229" s="415"/>
+      <c r="G229" s="415"/>
+      <c r="H229" s="415"/>
     </row>
     <row r="230" spans="6:8">
-      <c r="F230" s="429"/>
-      <c r="G230" s="429"/>
-      <c r="H230" s="429"/>
+      <c r="F230" s="415"/>
+      <c r="G230" s="415"/>
+      <c r="H230" s="415"/>
     </row>
     <row r="231" spans="6:8">
-      <c r="F231" s="429"/>
-      <c r="G231" s="429"/>
-      <c r="H231" s="429"/>
+      <c r="F231" s="415"/>
+      <c r="G231" s="415"/>
+      <c r="H231" s="415"/>
     </row>
     <row r="232" spans="6:8">
-      <c r="F232" s="429"/>
-      <c r="G232" s="429"/>
-      <c r="H232" s="429"/>
+      <c r="F232" s="415"/>
+      <c r="G232" s="415"/>
+      <c r="H232" s="415"/>
     </row>
     <row r="233" spans="6:8">
-      <c r="F233" s="429"/>
-      <c r="G233" s="429"/>
-      <c r="H233" s="429"/>
+      <c r="F233" s="415"/>
+      <c r="G233" s="415"/>
+      <c r="H233" s="415"/>
     </row>
     <row r="234" spans="6:8">
-      <c r="F234" s="429"/>
-      <c r="G234" s="429"/>
-      <c r="H234" s="429"/>
+      <c r="F234" s="415"/>
+      <c r="G234" s="415"/>
+      <c r="H234" s="415"/>
     </row>
     <row r="235" spans="6:8">
-      <c r="F235" s="429"/>
-      <c r="G235" s="429"/>
-      <c r="H235" s="429"/>
+      <c r="F235" s="415"/>
+      <c r="G235" s="415"/>
+      <c r="H235" s="415"/>
     </row>
     <row r="236" spans="6:8">
-      <c r="F236" s="429"/>
-      <c r="G236" s="429"/>
-      <c r="H236" s="429"/>
+      <c r="F236" s="415"/>
+      <c r="G236" s="415"/>
+      <c r="H236" s="415"/>
     </row>
     <row r="237" spans="6:8">
-      <c r="F237" s="429"/>
-      <c r="G237" s="429"/>
-      <c r="H237" s="429"/>
+      <c r="F237" s="415"/>
+      <c r="G237" s="415"/>
+      <c r="H237" s="415"/>
     </row>
     <row r="238" spans="6:8">
-      <c r="F238" s="429"/>
-      <c r="G238" s="429"/>
-      <c r="H238" s="429"/>
+      <c r="F238" s="415"/>
+      <c r="G238" s="415"/>
+      <c r="H238" s="415"/>
     </row>
     <row r="239" spans="6:8">
-      <c r="F239" s="429"/>
-      <c r="G239" s="429"/>
-      <c r="H239" s="429"/>
+      <c r="F239" s="415"/>
+      <c r="G239" s="415"/>
+      <c r="H239" s="415"/>
     </row>
     <row r="240" spans="6:8">
-      <c r="F240" s="429"/>
-      <c r="G240" s="429"/>
-      <c r="H240" s="429"/>
+      <c r="F240" s="415"/>
+      <c r="G240" s="415"/>
+      <c r="H240" s="415"/>
     </row>
     <row r="241" spans="6:8">
-      <c r="F241" s="429"/>
-      <c r="G241" s="429"/>
-      <c r="H241" s="429"/>
+      <c r="F241" s="415"/>
+      <c r="G241" s="415"/>
+      <c r="H241" s="415"/>
     </row>
     <row r="242" spans="6:8">
-      <c r="F242" s="429"/>
-      <c r="G242" s="429"/>
-      <c r="H242" s="429"/>
+      <c r="F242" s="415"/>
+      <c r="G242" s="415"/>
+      <c r="H242" s="415"/>
     </row>
     <row r="243" spans="6:8">
-      <c r="F243" s="429"/>
-      <c r="G243" s="429"/>
-      <c r="H243" s="429"/>
+      <c r="F243" s="415"/>
+      <c r="G243" s="415"/>
+      <c r="H243" s="415"/>
     </row>
     <row r="244" spans="6:8">
-      <c r="F244" s="429"/>
-      <c r="G244" s="429"/>
-      <c r="H244" s="429"/>
+      <c r="F244" s="415"/>
+      <c r="G244" s="415"/>
+      <c r="H244" s="415"/>
     </row>
     <row r="245" spans="6:8">
-      <c r="F245" s="429"/>
-      <c r="G245" s="429"/>
-      <c r="H245" s="429"/>
+      <c r="F245" s="415"/>
+      <c r="G245" s="415"/>
+      <c r="H245" s="415"/>
     </row>
     <row r="246" spans="6:8">
-      <c r="F246" s="429"/>
-      <c r="G246" s="429"/>
-      <c r="H246" s="429"/>
+      <c r="F246" s="415"/>
+      <c r="G246" s="415"/>
+      <c r="H246" s="415"/>
     </row>
     <row r="247" spans="6:8">
-      <c r="F247" s="429"/>
-      <c r="G247" s="429"/>
-      <c r="H247" s="429"/>
+      <c r="F247" s="415"/>
+      <c r="G247" s="415"/>
+      <c r="H247" s="415"/>
     </row>
     <row r="248" spans="6:8">
-      <c r="F248" s="429"/>
-      <c r="G248" s="429"/>
-      <c r="H248" s="429"/>
+      <c r="F248" s="415"/>
+      <c r="G248" s="415"/>
+      <c r="H248" s="415"/>
     </row>
     <row r="249" spans="6:8">
-      <c r="F249" s="429"/>
-      <c r="G249" s="429"/>
-      <c r="H249" s="429"/>
+      <c r="F249" s="415"/>
+      <c r="G249" s="415"/>
+      <c r="H249" s="415"/>
     </row>
     <row r="250" spans="6:8">
-      <c r="F250" s="429"/>
-      <c r="G250" s="429"/>
-      <c r="H250" s="429"/>
+      <c r="F250" s="415"/>
+      <c r="G250" s="415"/>
+      <c r="H250" s="415"/>
     </row>
     <row r="251" spans="6:8">
-      <c r="F251" s="429"/>
-      <c r="G251" s="429"/>
-      <c r="H251" s="429"/>
+      <c r="F251" s="415"/>
+      <c r="G251" s="415"/>
+      <c r="H251" s="415"/>
     </row>
     <row r="252" spans="6:8">
-      <c r="F252" s="429"/>
-      <c r="G252" s="429"/>
-      <c r="H252" s="429"/>
+      <c r="F252" s="415"/>
+      <c r="G252" s="415"/>
+      <c r="H252" s="415"/>
     </row>
     <row r="253" spans="6:8">
-      <c r="F253" s="429"/>
-      <c r="G253" s="429"/>
-      <c r="H253" s="429"/>
+      <c r="F253" s="415"/>
+      <c r="G253" s="415"/>
+      <c r="H253" s="415"/>
     </row>
     <row r="254" spans="6:8">
-      <c r="F254" s="429"/>
-      <c r="G254" s="429"/>
-      <c r="H254" s="429"/>
+      <c r="F254" s="415"/>
+      <c r="G254" s="415"/>
+      <c r="H254" s="415"/>
     </row>
     <row r="255" spans="6:8">
-      <c r="F255" s="429"/>
-      <c r="G255" s="429"/>
-      <c r="H255" s="429"/>
+      <c r="F255" s="415"/>
+      <c r="G255" s="415"/>
+      <c r="H255" s="415"/>
     </row>
     <row r="256" spans="6:8">
-      <c r="F256" s="429"/>
-      <c r="G256" s="429"/>
-      <c r="H256" s="429"/>
+      <c r="F256" s="415"/>
+      <c r="G256" s="415"/>
+      <c r="H256" s="415"/>
     </row>
     <row r="257" spans="6:8">
-      <c r="F257" s="429"/>
-      <c r="G257" s="429"/>
-      <c r="H257" s="429"/>
+      <c r="F257" s="415"/>
+      <c r="G257" s="415"/>
+      <c r="H257" s="415"/>
     </row>
     <row r="258" spans="6:8">
-      <c r="F258" s="429"/>
-      <c r="G258" s="429"/>
-      <c r="H258" s="429"/>
+      <c r="F258" s="415"/>
+      <c r="G258" s="415"/>
+      <c r="H258" s="415"/>
     </row>
     <row r="259" spans="6:8">
-      <c r="F259" s="429"/>
-      <c r="G259" s="429"/>
-      <c r="H259" s="429"/>
+      <c r="F259" s="415"/>
+      <c r="G259" s="415"/>
+      <c r="H259" s="415"/>
     </row>
     <row r="260" spans="6:8">
-      <c r="F260" s="429"/>
-      <c r="G260" s="429"/>
-      <c r="H260" s="429"/>
+      <c r="F260" s="415"/>
+      <c r="G260" s="415"/>
+      <c r="H260" s="415"/>
     </row>
     <row r="261" spans="6:8">
-      <c r="F261" s="429"/>
-      <c r="G261" s="429"/>
-      <c r="H261" s="429"/>
+      <c r="F261" s="415"/>
+      <c r="G261" s="415"/>
+      <c r="H261" s="415"/>
     </row>
     <row r="262" spans="6:8">
-      <c r="F262" s="429"/>
-      <c r="G262" s="429"/>
-      <c r="H262" s="429"/>
+      <c r="F262" s="415"/>
+      <c r="G262" s="415"/>
+      <c r="H262" s="415"/>
     </row>
     <row r="263" spans="6:8">
-      <c r="F263" s="429"/>
-      <c r="G263" s="429"/>
-      <c r="H263" s="429"/>
+      <c r="F263" s="415"/>
+      <c r="G263" s="415"/>
+      <c r="H263" s="415"/>
     </row>
     <row r="264" spans="6:8">
-      <c r="F264" s="429"/>
-      <c r="G264" s="429"/>
-      <c r="H264" s="429"/>
+      <c r="F264" s="415"/>
+      <c r="G264" s="415"/>
+      <c r="H264" s="415"/>
     </row>
     <row r="265" spans="6:8">
-      <c r="F265" s="429"/>
-      <c r="G265" s="429"/>
-      <c r="H265" s="429"/>
+      <c r="F265" s="415"/>
+      <c r="G265" s="415"/>
+      <c r="H265" s="415"/>
     </row>
     <row r="266" spans="6:8">
-      <c r="F266" s="429"/>
-      <c r="G266" s="429"/>
-      <c r="H266" s="429"/>
+      <c r="F266" s="415"/>
+      <c r="G266" s="415"/>
+      <c r="H266" s="415"/>
     </row>
     <row r="267" spans="6:8">
-      <c r="F267" s="429"/>
-      <c r="G267" s="429"/>
-      <c r="H267" s="429"/>
+      <c r="F267" s="415"/>
+      <c r="G267" s="415"/>
+      <c r="H267" s="415"/>
     </row>
     <row r="268" spans="6:8">
-      <c r="F268" s="429"/>
-      <c r="G268" s="429"/>
-      <c r="H268" s="429"/>
+      <c r="F268" s="415"/>
+      <c r="G268" s="415"/>
+      <c r="H268" s="415"/>
     </row>
     <row r="269" spans="6:8">
-      <c r="F269" s="429"/>
-      <c r="G269" s="429"/>
-      <c r="H269" s="429"/>
+      <c r="F269" s="415"/>
+      <c r="G269" s="415"/>
+      <c r="H269" s="415"/>
     </row>
     <row r="270" spans="6:8">
-      <c r="F270" s="429"/>
-      <c r="G270" s="429"/>
-      <c r="H270" s="429"/>
+      <c r="F270" s="415"/>
+      <c r="G270" s="415"/>
+      <c r="H270" s="415"/>
     </row>
     <row r="271" spans="6:8">
-      <c r="F271" s="429"/>
-      <c r="G271" s="429"/>
-      <c r="H271" s="429"/>
+      <c r="F271" s="415"/>
+      <c r="G271" s="415"/>
+      <c r="H271" s="415"/>
     </row>
     <row r="272" spans="6:8">
-      <c r="F272" s="429"/>
-      <c r="G272" s="429"/>
-      <c r="H272" s="429"/>
+      <c r="F272" s="415"/>
+      <c r="G272" s="415"/>
+      <c r="H272" s="415"/>
     </row>
     <row r="273" spans="6:8">
-      <c r="F273" s="429"/>
-      <c r="G273" s="429"/>
-      <c r="H273" s="429"/>
+      <c r="F273" s="415"/>
+      <c r="G273" s="415"/>
+      <c r="H273" s="415"/>
     </row>
     <row r="274" spans="6:8">
-      <c r="F274" s="429"/>
-      <c r="G274" s="429"/>
-      <c r="H274" s="429"/>
+      <c r="F274" s="415"/>
+      <c r="G274" s="415"/>
+      <c r="H274" s="415"/>
     </row>
     <row r="275" spans="6:8">
-      <c r="F275" s="429"/>
-      <c r="G275" s="429"/>
-      <c r="H275" s="429"/>
+      <c r="F275" s="415"/>
+      <c r="G275" s="415"/>
+      <c r="H275" s="415"/>
     </row>
     <row r="276" spans="6:8">
-      <c r="F276" s="429"/>
-      <c r="G276" s="429"/>
-      <c r="H276" s="429"/>
+      <c r="F276" s="415"/>
+      <c r="G276" s="415"/>
+      <c r="H276" s="415"/>
     </row>
     <row r="277" spans="6:8">
-      <c r="F277" s="429"/>
-      <c r="G277" s="429"/>
-      <c r="H277" s="429"/>
+      <c r="F277" s="415"/>
+      <c r="G277" s="415"/>
+      <c r="H277" s="415"/>
     </row>
     <row r="278" spans="6:8">
-      <c r="F278" s="429"/>
-      <c r="G278" s="429"/>
-      <c r="H278" s="429"/>
+      <c r="F278" s="415"/>
+      <c r="G278" s="415"/>
+      <c r="H278" s="415"/>
     </row>
     <row r="279" spans="6:8">
-      <c r="F279" s="429"/>
-      <c r="G279" s="429"/>
-      <c r="H279" s="429"/>
+      <c r="F279" s="415"/>
+      <c r="G279" s="415"/>
+      <c r="H279" s="415"/>
     </row>
     <row r="280" spans="6:8">
-      <c r="F280" s="429"/>
-      <c r="G280" s="429"/>
-      <c r="H280" s="429"/>
+      <c r="F280" s="415"/>
+      <c r="G280" s="415"/>
+      <c r="H280" s="415"/>
     </row>
     <row r="281" spans="6:8">
-      <c r="F281" s="429"/>
-      <c r="G281" s="429"/>
-      <c r="H281" s="429"/>
+      <c r="F281" s="415"/>
+      <c r="G281" s="415"/>
+      <c r="H281" s="415"/>
     </row>
     <row r="282" spans="6:8">
-      <c r="F282" s="429"/>
-      <c r="G282" s="429"/>
-      <c r="H282" s="429"/>
+      <c r="F282" s="415"/>
+      <c r="G282" s="415"/>
+      <c r="H282" s="415"/>
     </row>
     <row r="283" spans="6:8">
-      <c r="F283" s="429"/>
-      <c r="G283" s="429"/>
-      <c r="H283" s="429"/>
+      <c r="F283" s="415"/>
+      <c r="G283" s="415"/>
+      <c r="H283" s="415"/>
     </row>
     <row r="284" spans="6:8">
-      <c r="F284" s="429"/>
-      <c r="G284" s="429"/>
-      <c r="H284" s="429"/>
+      <c r="F284" s="415"/>
+      <c r="G284" s="415"/>
+      <c r="H284" s="415"/>
     </row>
     <row r="285" spans="6:8">
-      <c r="F285" s="429"/>
-      <c r="G285" s="429"/>
-      <c r="H285" s="429"/>
+      <c r="F285" s="415"/>
+      <c r="G285" s="415"/>
+      <c r="H285" s="415"/>
     </row>
     <row r="286" spans="6:8">
-      <c r="F286" s="429"/>
-      <c r="G286" s="429"/>
-      <c r="H286" s="429"/>
+      <c r="F286" s="415"/>
+      <c r="G286" s="415"/>
+      <c r="H286" s="415"/>
     </row>
     <row r="287" spans="6:8">
-      <c r="F287" s="429"/>
-      <c r="G287" s="429"/>
-      <c r="H287" s="429"/>
+      <c r="F287" s="415"/>
+      <c r="G287" s="415"/>
+      <c r="H287" s="415"/>
     </row>
     <row r="288" spans="6:8">
-      <c r="F288" s="429"/>
-      <c r="G288" s="429"/>
-      <c r="H288" s="429"/>
+      <c r="F288" s="415"/>
+      <c r="G288" s="415"/>
+      <c r="H288" s="415"/>
     </row>
     <row r="289" spans="6:8">
-      <c r="F289" s="429"/>
-      <c r="G289" s="429"/>
-      <c r="H289" s="429"/>
+      <c r="F289" s="415"/>
+      <c r="G289" s="415"/>
+      <c r="H289" s="415"/>
     </row>
     <row r="290" spans="6:8">
-      <c r="F290" s="429"/>
-      <c r="G290" s="429"/>
-      <c r="H290" s="429"/>
+      <c r="F290" s="415"/>
+      <c r="G290" s="415"/>
+      <c r="H290" s="415"/>
     </row>
     <row r="291" spans="6:8">
-      <c r="F291" s="429"/>
-      <c r="G291" s="429"/>
-      <c r="H291" s="429"/>
+      <c r="F291" s="415"/>
+      <c r="G291" s="415"/>
+      <c r="H291" s="415"/>
     </row>
     <row r="292" spans="6:8">
-      <c r="F292" s="429"/>
-      <c r="G292" s="429"/>
-      <c r="H292" s="429"/>
+      <c r="F292" s="415"/>
+      <c r="G292" s="415"/>
+      <c r="H292" s="415"/>
     </row>
     <row r="293" spans="6:8">
-      <c r="F293" s="429"/>
-      <c r="G293" s="429"/>
-      <c r="H293" s="429"/>
+      <c r="F293" s="415"/>
+      <c r="G293" s="415"/>
+      <c r="H293" s="415"/>
     </row>
     <row r="294" spans="6:8">
-      <c r="F294" s="429"/>
-      <c r="G294" s="429"/>
-      <c r="H294" s="429"/>
+      <c r="F294" s="415"/>
+      <c r="G294" s="415"/>
+      <c r="H294" s="415"/>
     </row>
     <row r="295" spans="6:8">
-      <c r="F295" s="429"/>
-      <c r="G295" s="429"/>
-      <c r="H295" s="429"/>
+      <c r="F295" s="415"/>
+      <c r="G295" s="415"/>
+      <c r="H295" s="415"/>
     </row>
     <row r="296" spans="6:8">
-      <c r="F296" s="429"/>
-      <c r="G296" s="429"/>
-      <c r="H296" s="429"/>
+      <c r="F296" s="415"/>
+      <c r="G296" s="415"/>
+      <c r="H296" s="415"/>
     </row>
     <row r="297" spans="6:8">
-      <c r="F297" s="429"/>
-      <c r="G297" s="429"/>
-      <c r="H297" s="429"/>
+      <c r="F297" s="415"/>
+      <c r="G297" s="415"/>
+      <c r="H297" s="415"/>
     </row>
     <row r="298" spans="6:8">
-      <c r="F298" s="429"/>
-      <c r="G298" s="429"/>
-      <c r="H298" s="429"/>
+      <c r="F298" s="415"/>
+      <c r="G298" s="415"/>
+      <c r="H298" s="415"/>
     </row>
     <row r="299" spans="6:8">
-      <c r="F299" s="429"/>
-      <c r="G299" s="429"/>
-      <c r="H299" s="429"/>
+      <c r="F299" s="415"/>
+      <c r="G299" s="415"/>
+      <c r="H299" s="415"/>
     </row>
     <row r="300" spans="6:8">
-      <c r="F300" s="429"/>
-      <c r="G300" s="429"/>
-      <c r="H300" s="429"/>
+      <c r="F300" s="415"/>
+      <c r="G300" s="415"/>
+      <c r="H300" s="415"/>
     </row>
     <row r="301" spans="6:8">
-      <c r="F301" s="429"/>
-      <c r="G301" s="429"/>
-      <c r="H301" s="429"/>
+      <c r="F301" s="415"/>
+      <c r="G301" s="415"/>
+      <c r="H301" s="415"/>
     </row>
     <row r="302" spans="6:8">
-      <c r="F302" s="429"/>
-      <c r="G302" s="429"/>
-      <c r="H302" s="429"/>
+      <c r="F302" s="415"/>
+      <c r="G302" s="415"/>
+      <c r="H302" s="415"/>
     </row>
     <row r="303" spans="6:8">
-      <c r="F303" s="429"/>
-      <c r="G303" s="429"/>
-      <c r="H303" s="429"/>
+      <c r="F303" s="415"/>
+      <c r="G303" s="415"/>
+      <c r="H303" s="415"/>
     </row>
     <row r="304" spans="6:8">
-      <c r="F304" s="429"/>
-      <c r="G304" s="429"/>
-      <c r="H304" s="429"/>
+      <c r="F304" s="415"/>
+      <c r="G304" s="415"/>
+      <c r="H304" s="415"/>
     </row>
     <row r="305" spans="6:8">
-      <c r="F305" s="429"/>
-      <c r="G305" s="429"/>
-      <c r="H305" s="429"/>
+      <c r="F305" s="415"/>
+      <c r="G305" s="415"/>
+      <c r="H305" s="415"/>
     </row>
     <row r="306" spans="6:8">
-      <c r="F306" s="429"/>
-      <c r="G306" s="429"/>
-      <c r="H306" s="429"/>
+      <c r="F306" s="415"/>
+      <c r="G306" s="415"/>
+      <c r="H306" s="415"/>
     </row>
     <row r="307" spans="6:8">
-      <c r="F307" s="429"/>
-      <c r="G307" s="429"/>
-      <c r="H307" s="429"/>
+      <c r="F307" s="415"/>
+      <c r="G307" s="415"/>
+      <c r="H307" s="415"/>
     </row>
     <row r="308" spans="6:8">
-      <c r="F308" s="429"/>
-      <c r="G308" s="429"/>
-      <c r="H308" s="429"/>
+      <c r="F308" s="415"/>
+      <c r="G308" s="415"/>
+      <c r="H308" s="415"/>
     </row>
     <row r="309" spans="6:8">
-      <c r="F309" s="429"/>
-      <c r="G309" s="429"/>
-      <c r="H309" s="429"/>
+      <c r="F309" s="415"/>
+      <c r="G309" s="415"/>
+      <c r="H309" s="415"/>
     </row>
     <row r="310" spans="6:8">
-      <c r="F310" s="429"/>
-      <c r="G310" s="429"/>
-      <c r="H310" s="429"/>
+      <c r="F310" s="415"/>
+      <c r="G310" s="415"/>
+      <c r="H310" s="415"/>
     </row>
     <row r="311" spans="6:8">
-      <c r="F311" s="429"/>
-      <c r="G311" s="429"/>
-      <c r="H311" s="429"/>
+      <c r="F311" s="415"/>
+      <c r="G311" s="415"/>
+      <c r="H311" s="415"/>
     </row>
     <row r="312" spans="6:8">
-      <c r="F312" s="429"/>
-      <c r="G312" s="429"/>
-      <c r="H312" s="429"/>
+      <c r="F312" s="415"/>
+      <c r="G312" s="415"/>
+      <c r="H312" s="415"/>
     </row>
     <row r="313" spans="6:8">
-      <c r="F313" s="429"/>
-      <c r="G313" s="429"/>
-      <c r="H313" s="429"/>
+      <c r="F313" s="415"/>
+      <c r="G313" s="415"/>
+      <c r="H313" s="415"/>
     </row>
     <row r="314" spans="6:8">
-      <c r="F314" s="429"/>
-      <c r="G314" s="429"/>
-      <c r="H314" s="429"/>
+      <c r="F314" s="415"/>
+      <c r="G314" s="415"/>
+      <c r="H314" s="415"/>
     </row>
     <row r="315" spans="6:8">
-      <c r="F315" s="429"/>
-      <c r="G315" s="429"/>
-      <c r="H315" s="429"/>
+      <c r="F315" s="415"/>
+      <c r="G315" s="415"/>
+      <c r="H315" s="415"/>
     </row>
     <row r="316" spans="6:8">
-      <c r="F316" s="429"/>
-      <c r="G316" s="429"/>
-      <c r="H316" s="429"/>
+      <c r="F316" s="415"/>
+      <c r="G316" s="415"/>
+      <c r="H316" s="415"/>
     </row>
     <row r="317" spans="6:8">
-      <c r="F317" s="429"/>
-      <c r="G317" s="429"/>
-      <c r="H317" s="429"/>
+      <c r="F317" s="415"/>
+      <c r="G317" s="415"/>
+      <c r="H317" s="415"/>
     </row>
     <row r="318" spans="6:8">
-      <c r="F318" s="429"/>
-      <c r="G318" s="429"/>
-      <c r="H318" s="429"/>
+      <c r="F318" s="415"/>
+      <c r="G318" s="415"/>
+      <c r="H318" s="415"/>
     </row>
     <row r="319" spans="6:8">
-      <c r="F319" s="429"/>
-      <c r="G319" s="429"/>
-      <c r="H319" s="429"/>
+      <c r="F319" s="415"/>
+      <c r="G319" s="415"/>
+      <c r="H319" s="415"/>
     </row>
     <row r="320" spans="6:8">
-      <c r="F320" s="429"/>
-      <c r="G320" s="429"/>
-      <c r="H320" s="429"/>
+      <c r="F320" s="415"/>
+      <c r="G320" s="415"/>
+      <c r="H320" s="415"/>
     </row>
     <row r="321" spans="6:8">
-      <c r="F321" s="429"/>
-      <c r="G321" s="429"/>
-      <c r="H321" s="429"/>
+      <c r="F321" s="415"/>
+      <c r="G321" s="415"/>
+      <c r="H321" s="415"/>
     </row>
     <row r="322" spans="6:8">
-      <c r="F322" s="429"/>
-      <c r="G322" s="429"/>
-      <c r="H322" s="429"/>
+      <c r="F322" s="415"/>
+      <c r="G322" s="415"/>
+      <c r="H322" s="415"/>
     </row>
     <row r="323" spans="6:8">
-      <c r="F323" s="429"/>
-      <c r="G323" s="429"/>
-      <c r="H323" s="429"/>
+      <c r="F323" s="415"/>
+      <c r="G323" s="415"/>
+      <c r="H323" s="415"/>
     </row>
     <row r="324" spans="6:8">
-      <c r="F324" s="429"/>
-      <c r="G324" s="429"/>
-      <c r="H324" s="429"/>
+      <c r="F324" s="415"/>
+      <c r="G324" s="415"/>
+      <c r="H324" s="415"/>
     </row>
     <row r="325" spans="6:8">
-      <c r="F325" s="429"/>
-      <c r="G325" s="429"/>
-      <c r="H325" s="429"/>
+      <c r="F325" s="415"/>
+      <c r="G325" s="415"/>
+      <c r="H325" s="415"/>
     </row>
     <row r="326" spans="6:8">
-      <c r="F326" s="429"/>
-      <c r="G326" s="429"/>
-      <c r="H326" s="429"/>
+      <c r="F326" s="415"/>
+      <c r="G326" s="415"/>
+      <c r="H326" s="415"/>
     </row>
     <row r="327" spans="6:8">
-      <c r="F327" s="429"/>
-      <c r="G327" s="429"/>
-      <c r="H327" s="429"/>
+      <c r="F327" s="415"/>
+      <c r="G327" s="415"/>
+      <c r="H327" s="415"/>
     </row>
     <row r="328" spans="6:8">
-      <c r="F328" s="429"/>
-      <c r="G328" s="429"/>
-      <c r="H328" s="429"/>
+      <c r="F328" s="415"/>
+      <c r="G328" s="415"/>
+      <c r="H328" s="415"/>
     </row>
     <row r="329" spans="6:8">
-      <c r="F329" s="429"/>
-      <c r="G329" s="429"/>
-      <c r="H329" s="429"/>
+      <c r="F329" s="415"/>
+      <c r="G329" s="415"/>
+      <c r="H329" s="415"/>
     </row>
     <row r="330" spans="6:8">
-      <c r="F330" s="429"/>
-      <c r="G330" s="429"/>
-      <c r="H330" s="429"/>
+      <c r="F330" s="415"/>
+      <c r="G330" s="415"/>
+      <c r="H330" s="415"/>
     </row>
     <row r="331" spans="6:8">
-      <c r="F331" s="429"/>
-      <c r="G331" s="429"/>
-      <c r="H331" s="429"/>
+      <c r="F331" s="415"/>
+      <c r="G331" s="415"/>
+      <c r="H331" s="415"/>
     </row>
     <row r="332" spans="6:8">
-      <c r="F332" s="429"/>
-      <c r="G332" s="429"/>
-      <c r="H332" s="429"/>
+      <c r="F332" s="415"/>
+      <c r="G332" s="415"/>
+      <c r="H332" s="415"/>
     </row>
     <row r="333" spans="6:8">
-      <c r="F333" s="429"/>
-      <c r="G333" s="429"/>
-      <c r="H333" s="429"/>
+      <c r="F333" s="415"/>
+      <c r="G333" s="415"/>
+      <c r="H333" s="415"/>
     </row>
     <row r="334" spans="6:8">
-      <c r="F334" s="429"/>
-      <c r="G334" s="429"/>
-      <c r="H334" s="429"/>
+      <c r="F334" s="415"/>
+      <c r="G334" s="415"/>
+      <c r="H334" s="415"/>
     </row>
     <row r="335" spans="6:8">
-      <c r="F335" s="429"/>
-      <c r="G335" s="429"/>
-      <c r="H335" s="429"/>
+      <c r="F335" s="415"/>
+      <c r="G335" s="415"/>
+      <c r="H335" s="415"/>
     </row>
     <row r="336" spans="6:8">
-      <c r="F336" s="429"/>
-      <c r="G336" s="429"/>
-      <c r="H336" s="429"/>
+      <c r="F336" s="415"/>
+      <c r="G336" s="415"/>
+      <c r="H336" s="415"/>
     </row>
     <row r="337" spans="6:8">
-      <c r="F337" s="429"/>
-      <c r="G337" s="429"/>
-      <c r="H337" s="429"/>
+      <c r="F337" s="415"/>
+      <c r="G337" s="415"/>
+      <c r="H337" s="415"/>
     </row>
     <row r="338" spans="6:8">
-      <c r="F338" s="429"/>
-      <c r="G338" s="429"/>
-      <c r="H338" s="429"/>
+      <c r="F338" s="415"/>
+      <c r="G338" s="415"/>
+      <c r="H338" s="415"/>
     </row>
     <row r="339" spans="6:8">
-      <c r="F339" s="429"/>
-      <c r="G339" s="429"/>
-      <c r="H339" s="429"/>
+      <c r="F339" s="415"/>
+      <c r="G339" s="415"/>
+      <c r="H339" s="415"/>
     </row>
     <row r="340" spans="6:8">
-      <c r="F340" s="429"/>
-      <c r="G340" s="429"/>
-      <c r="H340" s="429"/>
+      <c r="F340" s="415"/>
+      <c r="G340" s="415"/>
+      <c r="H340" s="415"/>
     </row>
     <row r="341" spans="6:8">
-      <c r="F341" s="429"/>
-      <c r="G341" s="429"/>
-      <c r="H341" s="429"/>
+      <c r="F341" s="415"/>
+      <c r="G341" s="415"/>
+      <c r="H341" s="415"/>
     </row>
     <row r="342" spans="6:8">
-      <c r="F342" s="429"/>
-      <c r="G342" s="429"/>
-      <c r="H342" s="429"/>
+      <c r="F342" s="415"/>
+      <c r="G342" s="415"/>
+      <c r="H342" s="415"/>
     </row>
     <row r="343" spans="6:8">
-      <c r="F343" s="429"/>
-      <c r="G343" s="429"/>
-      <c r="H343" s="429"/>
+      <c r="F343" s="415"/>
+      <c r="G343" s="415"/>
+      <c r="H343" s="415"/>
     </row>
     <row r="344" spans="6:8">
-      <c r="F344" s="429"/>
-      <c r="G344" s="429"/>
-      <c r="H344" s="429"/>
+      <c r="F344" s="415"/>
+      <c r="G344" s="415"/>
+      <c r="H344" s="415"/>
     </row>
     <row r="345" spans="6:8">
-      <c r="F345" s="429"/>
-      <c r="G345" s="429"/>
-      <c r="H345" s="429"/>
+      <c r="F345" s="415"/>
+      <c r="G345" s="415"/>
+      <c r="H345" s="415"/>
     </row>
     <row r="346" spans="6:8">
-      <c r="F346" s="429"/>
-      <c r="G346" s="429"/>
-      <c r="H346" s="429"/>
+      <c r="F346" s="415"/>
+      <c r="G346" s="415"/>
+      <c r="H346" s="415"/>
     </row>
     <row r="347" spans="6:8">
-      <c r="F347" s="429"/>
-      <c r="G347" s="429"/>
-      <c r="H347" s="429"/>
+      <c r="F347" s="415"/>
+      <c r="G347" s="415"/>
+      <c r="H347" s="415"/>
     </row>
     <row r="348" spans="6:8">
-      <c r="F348" s="429"/>
-      <c r="G348" s="429"/>
-      <c r="H348" s="429"/>
+      <c r="F348" s="415"/>
+      <c r="G348" s="415"/>
+      <c r="H348" s="415"/>
     </row>
     <row r="349" spans="6:8">
-      <c r="F349" s="429"/>
-      <c r="G349" s="429"/>
-      <c r="H349" s="429"/>
+      <c r="F349" s="415"/>
+      <c r="G349" s="415"/>
+      <c r="H349" s="415"/>
     </row>
     <row r="350" spans="6:8">
-      <c r="F350" s="429"/>
-      <c r="G350" s="429"/>
-      <c r="H350" s="429"/>
+      <c r="F350" s="415"/>
+      <c r="G350" s="415"/>
+      <c r="H350" s="415"/>
     </row>
     <row r="351" spans="6:8">
-      <c r="F351" s="429"/>
-      <c r="G351" s="429"/>
-      <c r="H351" s="429"/>
+      <c r="F351" s="415"/>
+      <c r="G351" s="415"/>
+      <c r="H351" s="415"/>
     </row>
     <row r="352" spans="6:8">
-      <c r="F352" s="429"/>
-      <c r="G352" s="429"/>
-      <c r="H352" s="429"/>
+      <c r="F352" s="415"/>
+      <c r="G352" s="415"/>
+      <c r="H352" s="415"/>
     </row>
     <row r="353" spans="6:8">
-      <c r="F353" s="429"/>
-      <c r="G353" s="429"/>
-      <c r="H353" s="429"/>
+      <c r="F353" s="415"/>
+      <c r="G353" s="415"/>
+      <c r="H353" s="415"/>
     </row>
     <row r="354" spans="6:8">
-      <c r="F354" s="429"/>
-      <c r="G354" s="429"/>
-      <c r="H354" s="429"/>
+      <c r="F354" s="415"/>
+      <c r="G354" s="415"/>
+      <c r="H354" s="415"/>
     </row>
     <row r="355" spans="6:8">
-      <c r="F355" s="429"/>
-      <c r="G355" s="429"/>
-      <c r="H355" s="429"/>
+      <c r="F355" s="415"/>
+      <c r="G355" s="415"/>
+      <c r="H355" s="415"/>
     </row>
     <row r="356" spans="6:8">
-      <c r="F356" s="429"/>
-      <c r="G356" s="429"/>
-      <c r="H356" s="429"/>
+      <c r="F356" s="415"/>
+      <c r="G356" s="415"/>
+      <c r="H356" s="415"/>
     </row>
     <row r="357" spans="6:8">
-      <c r="F357" s="429"/>
-      <c r="G357" s="429"/>
-      <c r="H357" s="429"/>
+      <c r="F357" s="415"/>
+      <c r="G357" s="415"/>
+      <c r="H357" s="415"/>
     </row>
     <row r="358" spans="6:8">
-      <c r="F358" s="429"/>
-      <c r="G358" s="429"/>
-      <c r="H358" s="429"/>
+      <c r="F358" s="415"/>
+      <c r="G358" s="415"/>
+      <c r="H358" s="415"/>
     </row>
     <row r="359" spans="6:8">
-      <c r="F359" s="429"/>
-      <c r="G359" s="429"/>
-      <c r="H359" s="429"/>
+      <c r="F359" s="415"/>
+      <c r="G359" s="415"/>
+      <c r="H359" s="415"/>
     </row>
     <row r="360" spans="6:8">
-      <c r="F360" s="429"/>
-      <c r="G360" s="429"/>
-      <c r="H360" s="429"/>
+      <c r="F360" s="415"/>
+      <c r="G360" s="415"/>
+      <c r="H360" s="415"/>
     </row>
     <row r="361" spans="6:8">
-      <c r="F361" s="429"/>
-      <c r="G361" s="429"/>
-      <c r="H361" s="429"/>
+      <c r="F361" s="415"/>
+      <c r="G361" s="415"/>
+      <c r="H361" s="415"/>
     </row>
     <row r="362" spans="6:8">
-      <c r="F362" s="429"/>
-      <c r="G362" s="429"/>
-      <c r="H362" s="429"/>
+      <c r="F362" s="415"/>
+      <c r="G362" s="415"/>
+      <c r="H362" s="415"/>
     </row>
     <row r="363" spans="6:8">
-      <c r="F363" s="429"/>
-      <c r="G363" s="429"/>
-      <c r="H363" s="429"/>
+      <c r="F363" s="415"/>
+      <c r="G363" s="415"/>
+      <c r="H363" s="415"/>
     </row>
     <row r="364" spans="6:8">
-      <c r="F364" s="429"/>
-      <c r="G364" s="429"/>
-      <c r="H364" s="429"/>
+      <c r="F364" s="415"/>
+      <c r="G364" s="415"/>
+      <c r="H364" s="415"/>
     </row>
     <row r="365" spans="6:8">
-      <c r="F365" s="429"/>
-      <c r="G365" s="429"/>
-      <c r="H365" s="429"/>
+      <c r="F365" s="415"/>
+      <c r="G365" s="415"/>
+      <c r="H365" s="415"/>
     </row>
     <row r="366" spans="6:8">
-      <c r="F366" s="429"/>
-      <c r="G366" s="429"/>
-      <c r="H366" s="429"/>
+      <c r="F366" s="415"/>
+      <c r="G366" s="415"/>
+      <c r="H366" s="415"/>
     </row>
     <row r="367" spans="6:8">
-      <c r="F367" s="429"/>
-      <c r="G367" s="429"/>
-      <c r="H367" s="429"/>
+      <c r="F367" s="415"/>
+      <c r="G367" s="415"/>
+      <c r="H367" s="415"/>
     </row>
     <row r="368" spans="6:8">
-      <c r="F368" s="429"/>
-      <c r="G368" s="429"/>
-      <c r="H368" s="429"/>
+      <c r="F368" s="415"/>
+      <c r="G368" s="415"/>
+      <c r="H368" s="415"/>
     </row>
     <row r="369" spans="6:8">
-      <c r="F369" s="429"/>
-      <c r="G369" s="429"/>
-      <c r="H369" s="429"/>
+      <c r="F369" s="415"/>
+      <c r="G369" s="415"/>
+      <c r="H369" s="415"/>
     </row>
     <row r="370" spans="6:8">
-      <c r="F370" s="429"/>
-      <c r="G370" s="429"/>
-      <c r="H370" s="429"/>
+      <c r="F370" s="415"/>
+      <c r="G370" s="415"/>
+      <c r="H370" s="415"/>
     </row>
     <row r="371" spans="6:8">
-      <c r="F371" s="429"/>
-      <c r="G371" s="429"/>
-      <c r="H371" s="429"/>
+      <c r="F371" s="415"/>
+      <c r="G371" s="415"/>
+      <c r="H371" s="415"/>
     </row>
     <row r="372" spans="6:8">
-      <c r="F372" s="429"/>
-      <c r="G372" s="429"/>
-      <c r="H372" s="429"/>
+      <c r="F372" s="415"/>
+      <c r="G372" s="415"/>
+      <c r="H372" s="415"/>
     </row>
     <row r="373" spans="6:8">
-      <c r="F373" s="429"/>
-      <c r="G373" s="429"/>
-      <c r="H373" s="429"/>
+      <c r="F373" s="415"/>
+      <c r="G373" s="415"/>
+      <c r="H373" s="415"/>
     </row>
     <row r="374" spans="6:8">
-      <c r="F374" s="429"/>
-      <c r="G374" s="429"/>
-      <c r="H374" s="429"/>
+      <c r="F374" s="415"/>
+      <c r="G374" s="415"/>
+      <c r="H374" s="415"/>
     </row>
     <row r="375" spans="6:8">
-      <c r="F375" s="429"/>
-      <c r="G375" s="429"/>
-      <c r="H375" s="429"/>
+      <c r="F375" s="415"/>
+      <c r="G375" s="415"/>
+      <c r="H375" s="415"/>
     </row>
     <row r="376" spans="6:8">
-      <c r="F376" s="429"/>
-      <c r="G376" s="429"/>
-      <c r="H376" s="429"/>
+      <c r="F376" s="415"/>
+      <c r="G376" s="415"/>
+      <c r="H376" s="415"/>
     </row>
     <row r="377" spans="6:8">
-      <c r="F377" s="429"/>
-      <c r="G377" s="429"/>
-      <c r="H377" s="429"/>
+      <c r="F377" s="415"/>
+      <c r="G377" s="415"/>
+      <c r="H377" s="415"/>
     </row>
     <row r="378" spans="6:8">
-      <c r="F378" s="429"/>
-      <c r="G378" s="429"/>
-      <c r="H378" s="429"/>
+      <c r="F378" s="415"/>
+      <c r="G378" s="415"/>
+      <c r="H378" s="415"/>
     </row>
     <row r="379" spans="6:8">
-      <c r="F379" s="429"/>
-      <c r="G379" s="429"/>
-      <c r="H379" s="429"/>
+      <c r="F379" s="415"/>
+      <c r="G379" s="415"/>
+      <c r="H379" s="415"/>
     </row>
     <row r="380" spans="6:8">
-      <c r="F380" s="429"/>
-      <c r="G380" s="429"/>
-      <c r="H380" s="429"/>
+      <c r="F380" s="415"/>
+      <c r="G380" s="415"/>
+      <c r="H380" s="415"/>
     </row>
     <row r="381" spans="6:8">
-      <c r="F381" s="429"/>
-      <c r="G381" s="429"/>
-      <c r="H381" s="429"/>
+      <c r="F381" s="415"/>
+      <c r="G381" s="415"/>
+      <c r="H381" s="415"/>
     </row>
     <row r="382" spans="6:8">
-      <c r="F382" s="429"/>
-      <c r="G382" s="429"/>
-      <c r="H382" s="429"/>
+      <c r="F382" s="415"/>
+      <c r="G382" s="415"/>
+      <c r="H382" s="415"/>
     </row>
     <row r="383" spans="6:8">
-      <c r="F383" s="429"/>
-      <c r="G383" s="429"/>
-      <c r="H383" s="429"/>
+      <c r="F383" s="415"/>
+      <c r="G383" s="415"/>
+      <c r="H383" s="415"/>
     </row>
     <row r="384" spans="6:8">
-      <c r="F384" s="429"/>
-      <c r="G384" s="429"/>
-      <c r="H384" s="429"/>
+      <c r="F384" s="415"/>
+      <c r="G384" s="415"/>
+      <c r="H384" s="415"/>
     </row>
     <row r="385" spans="6:8">
-      <c r="F385" s="429"/>
-      <c r="G385" s="429"/>
-      <c r="H385" s="429"/>
+      <c r="F385" s="415"/>
+      <c r="G385" s="415"/>
+      <c r="H385" s="415"/>
     </row>
     <row r="386" spans="6:8">
-      <c r="F386" s="429"/>
-      <c r="G386" s="429"/>
-      <c r="H386" s="429"/>
+      <c r="F386" s="415"/>
+      <c r="G386" s="415"/>
+      <c r="H386" s="415"/>
     </row>
     <row r="387" spans="6:8">
-      <c r="F387" s="429"/>
-      <c r="G387" s="429"/>
-      <c r="H387" s="429"/>
+      <c r="F387" s="415"/>
+      <c r="G387" s="415"/>
+      <c r="H387" s="415"/>
     </row>
     <row r="388" spans="6:8">
-      <c r="F388" s="429"/>
-      <c r="G388" s="429"/>
-      <c r="H388" s="429"/>
+      <c r="F388" s="415"/>
+      <c r="G388" s="415"/>
+      <c r="H388" s="415"/>
     </row>
     <row r="389" spans="6:8">
-      <c r="F389" s="429"/>
-      <c r="G389" s="429"/>
-      <c r="H389" s="429"/>
+      <c r="F389" s="415"/>
+      <c r="G389" s="415"/>
+      <c r="H389" s="415"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:K25">
+  <sortState ref="A4:K25">
     <sortCondition ref="I4:I25"/>
   </sortState>
   <mergeCells count="6">
@@ -10594,7 +10599,7 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="K8" r:id="rId1" display="https://www.sciencedirect.com/science/article/pii/S0735109713006980?via%3Dihub" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="K8" r:id="rId1" display="https://www.sciencedirect.com/science/article/pii/S0735109713006980?via%3Dihub"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId2"/>
@@ -10603,14 +10608,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CP127"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A91" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.5" customWidth="1"/>
@@ -11074,7 +11079,7 @@
         <v>124</v>
       </c>
       <c r="C7" s="153" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D7" s="152" t="s">
         <v>125</v>
@@ -11282,11 +11287,11 @@
       <c r="A9" s="330">
         <v>3</v>
       </c>
-      <c r="B9" s="402"/>
+      <c r="B9" s="388"/>
       <c r="C9" s="330" t="s">
         <v>461</v>
       </c>
-      <c r="D9" s="402"/>
+      <c r="D9" s="388"/>
       <c r="E9" s="247" t="s">
         <v>462</v>
       </c>
@@ -17528,15 +17533,15 @@
       <c r="CO71" s="3"/>
       <c r="CP71" s="3"/>
     </row>
-    <row r="72" spans="1:94" s="30" customFormat="1" ht="409.6">
+    <row r="72" spans="1:94" s="30" customFormat="1" ht="409.5">
       <c r="A72" s="330">
         <v>12</v>
       </c>
-      <c r="B72" s="402"/>
+      <c r="B72" s="388"/>
       <c r="C72" s="378" t="s">
         <v>451</v>
       </c>
-      <c r="D72" s="402"/>
+      <c r="D72" s="388"/>
       <c r="E72" s="247" t="s">
         <v>463</v>
       </c>
@@ -19416,7 +19421,7 @@
       <c r="B103" s="114" t="s">
         <v>174</v>
       </c>
-      <c r="C103" s="406">
+      <c r="C103" s="392">
         <v>29882</v>
       </c>
       <c r="D103" s="114" t="s">
@@ -19532,13 +19537,13 @@
         <v>18</v>
       </c>
       <c r="B105" s="114" t="s">
-        <v>569</v>
-      </c>
-      <c r="C105" s="405">
+        <v>567</v>
+      </c>
+      <c r="C105" s="391">
         <v>27447</v>
       </c>
       <c r="D105" s="114" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E105" s="261"/>
       <c r="F105" s="3"/>
@@ -20758,16 +20763,16 @@
       <c r="AR119" s="180"/>
     </row>
     <row r="120" spans="1:94">
-      <c r="A120" s="401">
+      <c r="A120" s="387">
         <v>22</v>
       </c>
-      <c r="B120" s="403" t="s">
+      <c r="B120" s="389" t="s">
         <v>136</v>
       </c>
-      <c r="C120" s="404">
+      <c r="C120" s="390">
         <v>71250</v>
       </c>
-      <c r="D120" s="407" t="s">
+      <c r="D120" s="393" t="s">
         <v>138</v>
       </c>
       <c r="E120" s="247"/>
@@ -20862,16 +20867,16 @@
       <c r="CP120" s="23"/>
     </row>
     <row r="121" spans="1:94">
-      <c r="A121" s="401">
+      <c r="A121" s="387">
         <v>22</v>
       </c>
-      <c r="B121" s="403" t="s">
+      <c r="B121" s="389" t="s">
         <v>136</v>
       </c>
-      <c r="C121" s="404">
+      <c r="C121" s="390">
         <v>71260</v>
       </c>
-      <c r="D121" s="407" t="s">
+      <c r="D121" s="393" t="s">
         <v>139</v>
       </c>
       <c r="E121" s="247"/>
@@ -21218,12 +21223,12 @@
       <c r="AR127" s="180"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:CP1" xr:uid="{ADDAF3FE-D2CF-D14D-AFC5-39FC141F4B62}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CP121">
+  <autoFilter ref="A1:CP1">
+    <sortState ref="A2:CP121">
       <sortCondition ref="A1:A121"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D120">
+  <sortState ref="A2:D120">
     <sortCondition ref="A2:A120"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21232,14 +21237,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CR13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="33" defaultRowHeight="15.5"/>
   <cols>
     <col min="1" max="1" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
@@ -21249,7 +21254,7 @@
     <col min="7" max="22" width="33" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:96" s="48" customFormat="1" ht="15">
+    <row r="1" spans="1:96" s="48" customFormat="1" ht="13.5">
       <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
@@ -21359,7 +21364,7 @@
       <c r="CQ1" s="44"/>
       <c r="CR1" s="44"/>
     </row>
-    <row r="2" spans="1:96" s="24" customFormat="1" ht="34">
+    <row r="2" spans="1:96" s="24" customFormat="1" ht="31">
       <c r="A2" s="143">
         <v>10</v>
       </c>
@@ -21921,14 +21926,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DQ167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="B110" sqref="B110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.83203125" style="48" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" style="48" customWidth="1"/>
@@ -29354,7 +29359,7 @@
         <v>174</v>
       </c>
       <c r="C108" s="323" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D108" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29486,7 +29491,7 @@
         <v>174</v>
       </c>
       <c r="C109" s="320" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="D109" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29615,10 +29620,10 @@
         <v>18</v>
       </c>
       <c r="B110" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C110" s="322" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D110" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29747,10 +29752,10 @@
         <v>18</v>
       </c>
       <c r="B111" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C111" s="321" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="D111" s="44" t="str">
         <f t="shared" si="2"/>
@@ -29879,10 +29884,10 @@
         <v>18</v>
       </c>
       <c r="B112" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C112" s="321" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D112" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30011,10 +30016,10 @@
         <v>18</v>
       </c>
       <c r="B113" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C113" s="321" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D113" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30143,10 +30148,10 @@
         <v>18</v>
       </c>
       <c r="B114" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C114" s="321" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D114" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30275,10 +30280,10 @@
         <v>18</v>
       </c>
       <c r="B115" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C115" s="321" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D115" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30407,10 +30412,10 @@
         <v>18</v>
       </c>
       <c r="B116" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C116" s="321" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="D116" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30539,10 +30544,10 @@
         <v>18</v>
       </c>
       <c r="B117" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C117" s="321" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D117" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30671,10 +30676,10 @@
         <v>18</v>
       </c>
       <c r="B118" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C118" s="321" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="D118" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30803,10 +30808,10 @@
         <v>18</v>
       </c>
       <c r="B119" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C119" s="321" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D119" s="44" t="str">
         <f t="shared" si="2"/>
@@ -30935,10 +30940,10 @@
         <v>18</v>
       </c>
       <c r="B120" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C120" s="321" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D120" s="44" t="str">
         <f t="shared" si="2"/>
@@ -31067,10 +31072,10 @@
         <v>18</v>
       </c>
       <c r="B121" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C121" s="321" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D121" s="44" t="str">
         <f t="shared" si="2"/>
@@ -31199,10 +31204,10 @@
         <v>18</v>
       </c>
       <c r="B122" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C122" s="321" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D122" s="44" t="str">
         <f t="shared" si="2"/>
@@ -31331,10 +31336,10 @@
         <v>18</v>
       </c>
       <c r="B123" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C123" s="321" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D123" s="44" t="str">
         <f t="shared" si="2"/>
@@ -31463,10 +31468,10 @@
         <v>18</v>
       </c>
       <c r="B124" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C124" s="321" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="D124" s="44" t="str">
         <f t="shared" si="2"/>
@@ -31595,10 +31600,10 @@
         <v>18</v>
       </c>
       <c r="B125" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C125" s="321" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D125" s="44" t="str">
         <f t="shared" si="2"/>
@@ -31727,10 +31732,10 @@
         <v>18</v>
       </c>
       <c r="B126" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C126" s="321" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="D126" s="44" t="str">
         <f t="shared" si="2"/>
@@ -31859,10 +31864,10 @@
         <v>18</v>
       </c>
       <c r="B127" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C127" s="321" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D127" s="44" t="str">
         <f t="shared" si="2"/>
@@ -31991,10 +31996,10 @@
         <v>18</v>
       </c>
       <c r="B128" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C128" s="321" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D128" s="44" t="str">
         <f t="shared" si="2"/>
@@ -32123,10 +32128,10 @@
         <v>18</v>
       </c>
       <c r="B129" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C129" s="321" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D129" s="44" t="str">
         <f t="shared" si="2"/>
@@ -32255,10 +32260,10 @@
         <v>18</v>
       </c>
       <c r="B130" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C130" s="321" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="D130" s="44" t="str">
         <f t="shared" si="2"/>
@@ -32387,10 +32392,10 @@
         <v>18</v>
       </c>
       <c r="B131" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C131" s="321" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D131" s="44" t="str">
         <f t="shared" si="2"/>
@@ -32519,10 +32524,10 @@
         <v>18</v>
       </c>
       <c r="B132" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C132" s="321" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D132" s="44" t="str">
         <f t="shared" si="2"/>
@@ -32651,10 +32656,10 @@
         <v>18</v>
       </c>
       <c r="B133" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C133" s="321" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D133" s="44" t="str">
         <f t="shared" si="2"/>
@@ -32783,10 +32788,10 @@
         <v>18</v>
       </c>
       <c r="B134" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C134" s="321" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D134" s="44" t="str">
         <f t="shared" si="2"/>
@@ -32915,10 +32920,10 @@
         <v>18</v>
       </c>
       <c r="B135" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C135" s="321" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D135" s="44" t="str">
         <f t="shared" si="2"/>
@@ -33047,10 +33052,10 @@
         <v>18</v>
       </c>
       <c r="B136" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C136" s="321" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D136" s="44" t="str">
         <f t="shared" si="2"/>
@@ -33179,10 +33184,10 @@
         <v>18</v>
       </c>
       <c r="B137" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C137" s="321" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D137" s="44" t="str">
         <f t="shared" si="2"/>
@@ -33311,10 +33316,10 @@
         <v>18</v>
       </c>
       <c r="B138" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C138" s="321" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D138" s="44" t="str">
         <f t="shared" si="2"/>
@@ -33443,10 +33448,10 @@
         <v>18</v>
       </c>
       <c r="B139" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C139" s="321" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D139" s="44" t="str">
         <f t="shared" si="2"/>
@@ -33575,10 +33580,10 @@
         <v>18</v>
       </c>
       <c r="B140" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C140" s="321" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D140" s="44" t="str">
         <f t="shared" si="2"/>
@@ -33707,10 +33712,10 @@
         <v>18</v>
       </c>
       <c r="B141" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C141" s="321" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D141" s="44" t="str">
         <f t="shared" si="2"/>
@@ -33839,10 +33844,10 @@
         <v>18</v>
       </c>
       <c r="B142" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C142" s="321" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D142" s="44" t="str">
         <f t="shared" si="2"/>
@@ -33971,10 +33976,10 @@
         <v>18</v>
       </c>
       <c r="B143" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C143" s="321" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="D143" s="44" t="str">
         <f t="shared" si="2"/>
@@ -34103,10 +34108,10 @@
         <v>18</v>
       </c>
       <c r="B144" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C144" s="321" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D144" s="44" t="str">
         <f t="shared" si="2"/>
@@ -34235,10 +34240,10 @@
         <v>18</v>
       </c>
       <c r="B145" s="136" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="C145" s="321" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="D145" s="44" t="str">
         <f t="shared" ref="D145" si="3">LEFT(C145,7)</f>
@@ -36616,26 +36621,26 @@
       <c r="AP167" s="179"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C98">
+  <sortState ref="A2:C98">
     <sortCondition ref="A2:A98"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="C78" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C79" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
-    <hyperlink ref="C80" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="C81" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C82" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="C83" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="C84" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C85" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="C86" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="C87" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="C88" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="C89" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="C90" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="C91" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="C92" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="C93" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="C78" r:id="rId1"/>
+    <hyperlink ref="C79" r:id="rId2"/>
+    <hyperlink ref="C80" r:id="rId3"/>
+    <hyperlink ref="C81" r:id="rId4"/>
+    <hyperlink ref="C82" r:id="rId5"/>
+    <hyperlink ref="C83" r:id="rId6"/>
+    <hyperlink ref="C84" r:id="rId7"/>
+    <hyperlink ref="C85" r:id="rId8"/>
+    <hyperlink ref="C86" r:id="rId9"/>
+    <hyperlink ref="C87" r:id="rId10"/>
+    <hyperlink ref="C88" r:id="rId11"/>
+    <hyperlink ref="C89" r:id="rId12"/>
+    <hyperlink ref="C90" r:id="rId13"/>
+    <hyperlink ref="C91" r:id="rId14"/>
+    <hyperlink ref="C92" r:id="rId15"/>
+    <hyperlink ref="C93" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId17"/>
@@ -36643,15 +36648,15 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A50" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="20.25" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="10.83203125" defaultRowHeight="20.25" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.5" style="282" customWidth="1"/>
     <col min="2" max="2" width="28.33203125" style="37" customWidth="1"/>
@@ -37181,15 +37186,15 @@
       <c r="AG12" s="40"/>
     </row>
     <row r="13" spans="1:33" s="7" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A13" s="408">
+      <c r="A13" s="394">
         <v>2</v>
       </c>
-      <c r="B13" s="410"/>
-      <c r="C13" s="412"/>
-      <c r="D13" s="412" t="s">
+      <c r="B13" s="396"/>
+      <c r="C13" s="398"/>
+      <c r="D13" s="398" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="415" t="s">
+      <c r="E13" s="401" t="s">
         <v>454</v>
       </c>
       <c r="F13" s="41" t="s">
@@ -37595,7 +37600,7 @@
       </c>
       <c r="D23" s="328"/>
       <c r="E23" s="329" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F23" s="39"/>
       <c r="G23" s="40"/>
@@ -37720,7 +37725,7 @@
         <v>419</v>
       </c>
       <c r="C26" s="75" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D26" s="75"/>
       <c r="E26" s="289" t="s">
@@ -38351,17 +38356,17 @@
       <c r="AG41" s="40"/>
     </row>
     <row r="42" spans="1:33" s="14" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A42" s="409" t="s">
+      <c r="A42" s="395" t="s">
         <v>284</v>
       </c>
-      <c r="B42" s="411" t="s">
+      <c r="B42" s="397" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="413"/>
-      <c r="D42" s="414" t="s">
+      <c r="C42" s="399"/>
+      <c r="D42" s="400" t="s">
         <v>48</v>
       </c>
-      <c r="E42" s="416" t="s">
+      <c r="E42" s="402" t="s">
         <v>31</v>
       </c>
       <c r="F42" s="41"/>
@@ -38696,7 +38701,7 @@
     </row>
     <row r="50" spans="1:33" ht="20.25" customHeight="1">
       <c r="A50" s="277" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B50" s="90" t="s">
         <v>45</v>
@@ -39842,29 +39847,29 @@
       <c r="E182" s="305"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AG1" xr:uid="{F744D133-442F-3449-8F90-6E286801D9AF}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG61">
+  <autoFilter ref="A1:AG1">
+    <sortState ref="A2:AG61">
       <sortCondition ref="A1:A61"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink ref="E24" r:id="rId1" display="I50.814 Right heart failure due to left heart failure" xr:uid="{00000000-0004-0000-0500-00000D000000}"/>
-    <hyperlink ref="E45" r:id="rId2" display="R55 Syncope and collapse" xr:uid="{00000000-0004-0000-0500-00000E000000}"/>
-    <hyperlink ref="E50" r:id="rId3" xr:uid="{00000000-0004-0000-0500-00000F000000}"/>
-    <hyperlink ref="E47" r:id="rId4" xr:uid="{00000000-0004-0000-0500-000010000000}"/>
-    <hyperlink ref="E30" r:id="rId5" xr:uid="{38884005-4227-254B-9E19-CB0B8A812608}"/>
-    <hyperlink ref="E31" r:id="rId6" xr:uid="{63FC744D-E61E-A444-A93E-46013B5A329C}"/>
-    <hyperlink ref="E32" r:id="rId7" xr:uid="{9A7C7A2E-33BF-754D-B074-8EA8E0CEE2B3}"/>
-    <hyperlink ref="E33" r:id="rId8" xr:uid="{9786FEB4-11B9-6A48-8D7F-CC3ADE41FFE1}"/>
-    <hyperlink ref="E34" r:id="rId9" xr:uid="{9813D2F4-4D7B-3C42-B2BC-55CC6E04B6B9}"/>
-    <hyperlink ref="E35" r:id="rId10" xr:uid="{32E5B286-C8E5-5F4A-A2A3-76C69EB5C289}"/>
-    <hyperlink ref="E36" r:id="rId11" xr:uid="{F9112C1E-D211-2E4F-B78F-7332FE6F80AB}"/>
-    <hyperlink ref="E37" r:id="rId12" xr:uid="{8CF4ECC6-A308-F74B-B0EB-F1EBAF55CCD8}"/>
-    <hyperlink ref="E38" r:id="rId13" xr:uid="{5F02424D-1333-124B-AB9F-3FA28887219B}"/>
-    <hyperlink ref="E39" r:id="rId14" xr:uid="{FFBEB90C-8050-2244-B7FE-D2E4A791297D}"/>
-    <hyperlink ref="E40" r:id="rId15" xr:uid="{439E3642-968D-5244-A58B-1A047BB6536D}"/>
-    <hyperlink ref="E41" r:id="rId16" xr:uid="{387D6845-6C20-2249-9E35-9A69A070097D}"/>
-    <hyperlink ref="E42" r:id="rId17" xr:uid="{AD6F06B0-C5D1-ED42-BD90-21E49D39C377}"/>
+    <hyperlink ref="E24" r:id="rId1" display="I50.814 Right heart failure due to left heart failure"/>
+    <hyperlink ref="E45" r:id="rId2" display="R55 Syncope and collapse"/>
+    <hyperlink ref="E50" r:id="rId3"/>
+    <hyperlink ref="E47" r:id="rId4"/>
+    <hyperlink ref="E30" r:id="rId5"/>
+    <hyperlink ref="E31" r:id="rId6"/>
+    <hyperlink ref="E32" r:id="rId7"/>
+    <hyperlink ref="E33" r:id="rId8"/>
+    <hyperlink ref="E34" r:id="rId9"/>
+    <hyperlink ref="E35" r:id="rId10"/>
+    <hyperlink ref="E36" r:id="rId11"/>
+    <hyperlink ref="E37" r:id="rId12"/>
+    <hyperlink ref="E38" r:id="rId13"/>
+    <hyperlink ref="E39" r:id="rId14"/>
+    <hyperlink ref="E40" r:id="rId15"/>
+    <hyperlink ref="E41" r:id="rId16"/>
+    <hyperlink ref="E42" r:id="rId17"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId18"/>
@@ -39872,14 +39877,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="15" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="15" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="4" width="15" style="4"/>
     <col min="5" max="7" width="15" style="335"/>
@@ -39890,93 +39895,93 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="B1" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="I1" s="363" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="J1" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="330"/>
-      <c r="B2" s="399" t="s">
-        <v>580</v>
-      </c>
-      <c r="C2" s="399"/>
-      <c r="D2" s="399"/>
-      <c r="E2" s="400" t="s">
-        <v>583</v>
-      </c>
-      <c r="F2" s="400"/>
-      <c r="G2" s="400"/>
+      <c r="B2" s="431" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="431"/>
+      <c r="D2" s="431"/>
+      <c r="E2" s="432" t="s">
+        <v>581</v>
+      </c>
+      <c r="F2" s="432"/>
+      <c r="G2" s="432"/>
       <c r="H2" s="337"/>
-      <c r="J2" s="399" t="s">
-        <v>580</v>
-      </c>
-      <c r="K2" s="399"/>
-      <c r="L2" s="399"/>
+      <c r="J2" s="431" t="s">
+        <v>578</v>
+      </c>
+      <c r="K2" s="431"/>
+      <c r="L2" s="431"/>
       <c r="M2" s="332"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="331" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" s="147" t="s">
         <v>579</v>
       </c>
-      <c r="B3" s="147" t="s">
-        <v>581</v>
-      </c>
       <c r="C3" s="147" t="s">
+        <v>580</v>
+      </c>
+      <c r="D3" s="147" t="s">
+        <v>584</v>
+      </c>
+      <c r="E3" s="333" t="s">
+        <v>579</v>
+      </c>
+      <c r="F3" s="333" t="s">
+        <v>580</v>
+      </c>
+      <c r="G3" s="333" t="s">
+        <v>584</v>
+      </c>
+      <c r="H3" s="337" t="s">
+        <v>583</v>
+      </c>
+      <c r="I3" s="365" t="s">
+        <v>585</v>
+      </c>
+      <c r="J3" s="334" t="s">
+        <v>579</v>
+      </c>
+      <c r="K3" s="334" t="s">
+        <v>580</v>
+      </c>
+      <c r="L3" s="334" t="s">
+        <v>584</v>
+      </c>
+      <c r="M3" s="332" t="s">
         <v>582</v>
-      </c>
-      <c r="D3" s="147" t="s">
-        <v>586</v>
-      </c>
-      <c r="E3" s="333" t="s">
-        <v>581</v>
-      </c>
-      <c r="F3" s="333" t="s">
-        <v>582</v>
-      </c>
-      <c r="G3" s="333" t="s">
-        <v>586</v>
-      </c>
-      <c r="H3" s="337" t="s">
-        <v>585</v>
-      </c>
-      <c r="I3" s="365" t="s">
-        <v>587</v>
-      </c>
-      <c r="J3" s="334" t="s">
-        <v>581</v>
-      </c>
-      <c r="K3" s="334" t="s">
-        <v>582</v>
-      </c>
-      <c r="L3" s="334" t="s">
-        <v>586</v>
-      </c>
-      <c r="M3" s="332" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="3" customFormat="1" ht="21" customHeight="1">
@@ -39993,7 +39998,7 @@
       <c r="G4" s="360"/>
       <c r="H4" s="361"/>
       <c r="I4" s="366" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M4" s="360" t="s">
         <v>219</v>
@@ -40017,7 +40022,7 @@
       </c>
       <c r="H5" s="355"/>
       <c r="I5" s="369" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J5" s="356"/>
       <c r="K5" s="356"/>
@@ -40044,7 +40049,7 @@
       </c>
       <c r="H6" s="341"/>
       <c r="I6" s="367" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J6" s="342"/>
       <c r="K6" s="342"/>
@@ -40071,7 +40076,7 @@
       </c>
       <c r="H7" s="355"/>
       <c r="I7" s="369" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J7" s="356"/>
       <c r="K7" s="356"/>
@@ -40098,7 +40103,7 @@
         <v>219</v>
       </c>
       <c r="I8" s="366" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
@@ -40125,7 +40130,7 @@
       </c>
       <c r="H9" s="358"/>
       <c r="I9" s="370" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="J9" s="359"/>
       <c r="K9" s="359"/>
@@ -40152,7 +40157,7 @@
       </c>
       <c r="H10" s="341"/>
       <c r="I10" s="367" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J10" s="342"/>
       <c r="K10" s="342"/>
@@ -40181,7 +40186,7 @@
       </c>
       <c r="H11" s="341"/>
       <c r="I11" s="367" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J11" s="342"/>
       <c r="K11" s="342"/>
@@ -40206,7 +40211,7 @@
       <c r="G12" s="348"/>
       <c r="H12" s="349"/>
       <c r="I12" s="372" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J12" s="350"/>
       <c r="K12" s="350"/>
@@ -40233,7 +40238,7 @@
       <c r="G13" s="360"/>
       <c r="H13" s="361"/>
       <c r="I13" s="366" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="M13" s="360" t="s">
         <v>219</v>
@@ -40257,7 +40262,7 @@
       </c>
       <c r="H14" s="358"/>
       <c r="I14" s="370" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="J14" s="359"/>
       <c r="K14" s="359"/>
@@ -40282,7 +40287,7 @@
       <c r="G15" s="351"/>
       <c r="H15" s="352"/>
       <c r="I15" s="373" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J15" s="353"/>
       <c r="K15" s="353"/>
@@ -40307,7 +40312,7 @@
       </c>
       <c r="H16" s="344"/>
       <c r="I16" s="368" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J16" s="30"/>
       <c r="K16" s="30"/>
@@ -40334,7 +40339,7 @@
       <c r="G17" s="360"/>
       <c r="H17" s="361"/>
       <c r="I17" s="366" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -40361,7 +40366,7 @@
       </c>
       <c r="H18" s="344"/>
       <c r="I18" s="368" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J18" s="30"/>
       <c r="K18" s="30"/>
@@ -40388,7 +40393,7 @@
       <c r="G19" s="351"/>
       <c r="H19" s="352"/>
       <c r="I19" s="373" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="J19" s="353"/>
       <c r="K19" s="353"/>
@@ -40415,7 +40420,7 @@
       </c>
       <c r="H20" s="341"/>
       <c r="I20" s="367" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J20" s="342"/>
       <c r="K20" s="342"/>
@@ -40448,7 +40453,7 @@
       </c>
       <c r="H21" s="361"/>
       <c r="I21" s="366" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
@@ -40477,7 +40482,7 @@
         <v>219</v>
       </c>
       <c r="I22" s="366" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -40502,7 +40507,7 @@
         <v>219</v>
       </c>
       <c r="I23" s="371" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J23" s="347"/>
       <c r="K23" s="347"/>
@@ -40527,7 +40532,7 @@
         <v>219</v>
       </c>
       <c r="I24" s="371" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="J24" s="347"/>
       <c r="K24" s="347"/>
@@ -40550,7 +40555,7 @@
       <c r="G25" s="348"/>
       <c r="H25" s="349"/>
       <c r="I25" s="372" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="M25" s="348"/>
     </row>
@@ -40638,12 +40643,12 @@
       <c r="J42" s="318"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:M3" xr:uid="{00000000-0009-0000-0000-000006000000}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:M25">
+  <autoFilter ref="A3:M3">
+    <sortState ref="A4:M25">
       <sortCondition ref="A3:A25"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:I24">
+  <sortState ref="A3:I24">
     <sortCondition ref="E3:E24"/>
     <sortCondition ref="F3:F24"/>
     <sortCondition ref="G3:G24"/>
@@ -40659,14 +40664,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:P25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="15.5"/>
   <cols>
     <col min="2" max="4" width="11.5" style="4"/>
     <col min="5" max="7" width="11.5" style="335"/>
@@ -40676,21 +40681,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="2" customFormat="1">
-      <c r="B1" s="387" t="s">
-        <v>594</v>
-      </c>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="388" t="s">
-        <v>595</v>
-      </c>
-      <c r="J1" s="388"/>
-      <c r="K1" s="388"/>
-      <c r="L1" s="388"/>
+      <c r="B1" s="422" t="s">
+        <v>592</v>
+      </c>
+      <c r="C1" s="422"/>
+      <c r="D1" s="422"/>
+      <c r="E1" s="422"/>
+      <c r="F1" s="422"/>
+      <c r="G1" s="422"/>
+      <c r="H1" s="422"/>
+      <c r="I1" s="423" t="s">
+        <v>593</v>
+      </c>
+      <c r="J1" s="423"/>
+      <c r="K1" s="423"/>
+      <c r="L1" s="423"/>
       <c r="M1" s="377"/>
       <c r="N1" s="377"/>
       <c r="O1" s="377"/>
@@ -40698,75 +40703,75 @@
     </row>
     <row r="2" spans="1:17" s="2" customFormat="1">
       <c r="A2" s="378"/>
-      <c r="B2" s="389" t="s">
+      <c r="B2" s="424" t="s">
+        <v>578</v>
+      </c>
+      <c r="C2" s="424"/>
+      <c r="D2" s="424"/>
+      <c r="E2" s="425" t="s">
+        <v>581</v>
+      </c>
+      <c r="F2" s="426"/>
+      <c r="G2" s="426"/>
+      <c r="H2" s="427"/>
+      <c r="I2" s="428" t="s">
+        <v>578</v>
+      </c>
+      <c r="J2" s="429"/>
+      <c r="K2" s="429"/>
+      <c r="L2" s="430"/>
+      <c r="M2" s="419" t="s">
+        <v>594</v>
+      </c>
+      <c r="N2" s="420"/>
+      <c r="O2" s="420"/>
+      <c r="P2" s="421"/>
+    </row>
+    <row r="3" spans="1:17" s="2" customFormat="1" ht="31">
+      <c r="A3" s="379" t="s">
+        <v>577</v>
+      </c>
+      <c r="B3" s="380" t="s">
+        <v>579</v>
+      </c>
+      <c r="C3" s="380" t="s">
         <v>580</v>
       </c>
-      <c r="C2" s="389"/>
-      <c r="D2" s="389"/>
-      <c r="E2" s="390" t="s">
+      <c r="D3" s="380" t="s">
+        <v>584</v>
+      </c>
+      <c r="E3" s="381" t="s">
+        <v>579</v>
+      </c>
+      <c r="F3" s="381" t="s">
+        <v>580</v>
+      </c>
+      <c r="G3" s="381" t="s">
+        <v>584</v>
+      </c>
+      <c r="H3" s="382" t="s">
         <v>583</v>
       </c>
-      <c r="F2" s="391"/>
-      <c r="G2" s="391"/>
-      <c r="H2" s="392"/>
-      <c r="I2" s="393" t="s">
+      <c r="I3" s="380" t="s">
+        <v>579</v>
+      </c>
+      <c r="J3" s="380" t="s">
         <v>580</v>
       </c>
-      <c r="J2" s="394"/>
-      <c r="K2" s="394"/>
-      <c r="L2" s="395"/>
-      <c r="M2" s="396" t="s">
+      <c r="K3" s="380" t="s">
+        <v>584</v>
+      </c>
+      <c r="L3" s="382" t="s">
+        <v>582</v>
+      </c>
+      <c r="M3" s="383" t="s">
+        <v>597</v>
+      </c>
+      <c r="N3" s="383" t="s">
+        <v>595</v>
+      </c>
+      <c r="O3" s="383" t="s">
         <v>596</v>
-      </c>
-      <c r="N2" s="397"/>
-      <c r="O2" s="397"/>
-      <c r="P2" s="398"/>
-    </row>
-    <row r="3" spans="1:17" s="2" customFormat="1" ht="34">
-      <c r="A3" s="379" t="s">
-        <v>579</v>
-      </c>
-      <c r="B3" s="380" t="s">
-        <v>581</v>
-      </c>
-      <c r="C3" s="380" t="s">
-        <v>582</v>
-      </c>
-      <c r="D3" s="380" t="s">
-        <v>586</v>
-      </c>
-      <c r="E3" s="381" t="s">
-        <v>581</v>
-      </c>
-      <c r="F3" s="381" t="s">
-        <v>582</v>
-      </c>
-      <c r="G3" s="381" t="s">
-        <v>586</v>
-      </c>
-      <c r="H3" s="382" t="s">
-        <v>585</v>
-      </c>
-      <c r="I3" s="380" t="s">
-        <v>581</v>
-      </c>
-      <c r="J3" s="380" t="s">
-        <v>582</v>
-      </c>
-      <c r="K3" s="380" t="s">
-        <v>586</v>
-      </c>
-      <c r="L3" s="382" t="s">
-        <v>584</v>
-      </c>
-      <c r="M3" s="383" t="s">
-        <v>599</v>
-      </c>
-      <c r="N3" s="383" t="s">
-        <v>597</v>
-      </c>
-      <c r="O3" s="383" t="s">
-        <v>598</v>
       </c>
       <c r="P3" s="383" t="s">
         <v>240</v>
@@ -40794,7 +40799,7 @@
       <c r="O4" s="360"/>
       <c r="P4" s="360"/>
       <c r="Q4" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="5" spans="1:17" s="3" customFormat="1">
@@ -41542,196 +41547,196 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A1:A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="98" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1">
       <c r="A1" s="319" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" customHeight="1">
       <c r="A2" s="319" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" customHeight="1">
       <c r="A3" s="319" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1">
       <c r="A4" s="319" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1">
       <c r="A5" s="319" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" customHeight="1">
       <c r="A6" s="319" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" customHeight="1">
       <c r="A7" s="319" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15" customHeight="1">
       <c r="A8" s="319" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" customHeight="1">
       <c r="A9" s="319" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" customHeight="1">
       <c r="A10" s="319" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" customHeight="1">
       <c r="A11" s="319" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" customHeight="1">
       <c r="A12" s="319" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" customHeight="1">
       <c r="A13" s="319" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" customHeight="1">
       <c r="A14" s="319" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" customHeight="1">
       <c r="A15" s="319" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" customHeight="1">
       <c r="A16" s="319" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" customHeight="1">
       <c r="A17" s="319" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" customHeight="1">
       <c r="A18" s="319" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" customHeight="1">
       <c r="A19" s="319" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" customHeight="1">
       <c r="A20" s="319" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" customHeight="1">
       <c r="A21" s="319" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" customHeight="1">
       <c r="A22" s="319" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" customHeight="1">
       <c r="A23" s="319" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" customHeight="1">
       <c r="A24" s="319" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" customHeight="1">
       <c r="A25" s="319" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" customHeight="1">
       <c r="A26" s="319" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" customHeight="1">
       <c r="A27" s="319" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" customHeight="1">
       <c r="A28" s="319" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" customHeight="1">
       <c r="A29" s="319" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" customHeight="1">
       <c r="A30" s="319" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" customHeight="1">
       <c r="A31" s="319" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" customHeight="1">
       <c r="A32" s="319" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" customHeight="1">
       <c r="A33" s="319" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" customHeight="1">
       <c r="A34" s="319" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" customHeight="1">
       <c r="A35" s="319" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" customHeight="1">
       <c r="A36" s="319" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
